--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6547E1-341E-48D7-BDB9-54B59A5E5E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447E6FAE-B943-426F-BBFF-62F3D6084EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E77EBB07-1568-49A8-A221-927405D9D0F7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="78">
   <si>
     <t>Question Number</t>
   </si>
@@ -166,13 +166,116 @@
   </si>
   <si>
     <t>TC need to make sure</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>re-do best sol.</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>DP,Divide and Conquer</t>
+  </si>
+  <si>
+    <t>https://ithelp.ithome.com.tw/users/20119871/ironman/2210?page=1</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t> Jump Game</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-interval/discuss/844523/C%2B%2B-Super-Clean-Clear-Short-and-Simple-Solution-O(n)-time-O(1)-space</t>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>need to understand</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math
+https://leetcode.com/problems/unique-paths/discuss/1582051/C%2B%2B-EASY-Intuitive-Solution-oror-Combinatorics-oror-TC-O(min(MN))-SC-O(1)-oror-Beats-100</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Hashtable, Matrix</t>
+  </si>
+  <si>
+    <t>understand to optimal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/set-matrix-zeroes/discuss/1400849/Set-Matrix-Zeroes-oror-2-Approach-w-Explanation-oror-C%2B%2B-or-Python-or-Java</t>
+  </si>
+  <si>
+    <t>re-do understand</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>Backtracking, Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-search/discuss/27835/C%2B%2B-dfs-solution.</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Recursion…</t>
+  </si>
+  <si>
+    <t>understand other solution</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/discuss/32141/C%2B%2B-simple-recursive-solution</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Recursion, Iteration, Morris</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +312,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -237,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,6 +399,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -563,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AF4F45-DB17-4544-B1E2-27F83003D19F}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,11 +735,11 @@
     <col min="2" max="2" width="36.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -634,7 +794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -660,7 +820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -686,7 +846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -715,7 +875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>11</v>
       </c>
@@ -741,7 +901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>15</v>
       </c>
@@ -767,7 +927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>19</v>
       </c>
@@ -793,7 +953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>20</v>
       </c>
@@ -819,7 +979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>21</v>
       </c>
@@ -845,7 +1005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>23</v>
       </c>
@@ -874,7 +1034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>33</v>
       </c>
@@ -900,7 +1060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>39</v>
       </c>
@@ -929,7 +1089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>48</v>
       </c>
@@ -955,6 +1115,452 @@
         <v>43</v>
       </c>
       <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>53</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>54</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>55</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>56</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>57</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>59</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>62</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>70</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>73</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>76</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>79</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>91</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>98</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>94</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -964,8 +1570,11 @@
     <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum" xr:uid="{8BD0DFE9-4257-4C3D-A182-8E6A1B6F585E}"/>
     <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{71B21925-A968-4F90-8E59-5BE483793798}"/>
     <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image" xr:uid="{23CF6859-3595-41DB-A847-1FE1252102DE}"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{64742B6E-4945-4487-AD4E-B471D0EA0E18}"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{2D717D5B-6B86-4994-A9C6-2EC8C43359E3}"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{B4FC6168-94A0-4027-A839-39CECFFEE25C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447E6FAE-B943-426F-BBFF-62F3D6084EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E77EBB07-1568-49A8-A221-927405D9D0F7}"/>
+    <workbookView xWindow="-115" yWindow="-115" windowWidth="19423" windowHeight="10426"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
   <si>
     <t>Question Number</t>
   </si>
@@ -269,17 +268,27 @@
   </si>
   <si>
     <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Iteration, Recursion</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/discuss/1770060/C%2B%2B-oror-Recursive-oror-DFS-oror-Example-Dry-Run-oror-Well-Explained</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -287,7 +296,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -295,7 +304,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -308,7 +317,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -360,6 +369,19 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -388,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,10 +430,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -722,24 +745,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AF4F45-DB17-4544-B1E2-27F83003D19F}">
-  <dimension ref="A1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,7 +791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -794,7 +817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -820,7 +843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -846,7 +869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -875,7 +898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -901,7 +924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -927,7 +950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19</v>
       </c>
@@ -953,7 +976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
@@ -979,7 +1002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1005,7 +1028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1034,7 +1057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1060,7 +1083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>39</v>
       </c>
@@ -1089,7 +1112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1118,7 +1141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>49</v>
       </c>
@@ -1147,7 +1170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>53</v>
       </c>
@@ -1176,7 +1199,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>54</v>
       </c>
@@ -1202,7 +1225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>55</v>
       </c>
@@ -1231,7 +1254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>56</v>
       </c>
@@ -1257,7 +1280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>57</v>
       </c>
@@ -1283,7 +1306,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>59</v>
       </c>
@@ -1315,7 +1338,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>62</v>
       </c>
@@ -1347,7 +1370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>70</v>
       </c>
@@ -1373,7 +1396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>73</v>
       </c>
@@ -1405,7 +1428,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>76</v>
       </c>
@@ -1428,7 +1451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>79</v>
       </c>
@@ -1460,7 +1483,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>91</v>
       </c>
@@ -1483,7 +1506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>98</v>
       </c>
@@ -1515,7 +1538,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>94</v>
       </c>
@@ -1541,7 +1564,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100</v>
       </c>
@@ -1564,15 +1587,45 @@
         <v>29</v>
       </c>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>104</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{D8D6B0D1-6CE1-4455-8E68-636F36BC7933}"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum" xr:uid="{8BD0DFE9-4257-4C3D-A182-8E6A1B6F585E}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{71B21925-A968-4F90-8E59-5BE483793798}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image" xr:uid="{23CF6859-3595-41DB-A847-1FE1252102DE}"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{64742B6E-4945-4487-AD4E-B471D0EA0E18}"/>
-    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{2D717D5B-6B86-4994-A9C6-2EC8C43359E3}"/>
-    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{B4FC6168-94A0-4027-A839-39CECFFEE25C}"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447E6FAE-B943-426F-BBFF-62F3D6084EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB40257-DBCF-40BD-858D-BF9972455217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E77EBB07-1568-49A8-A221-927405D9D0F7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="83">
   <si>
     <t>Question Number</t>
   </si>
@@ -269,13 +269,28 @@
   </si>
   <si>
     <t>Same Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/same-tree/discuss/919297/c%2B%2B-~-100-faster-or-100-memory-efficient-or-easy-code</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/discuss/33443/C%2B%2B-solution-using-only-one-queue-use-a-marker-NULL</t>
+  </si>
+  <si>
+    <t>neet to study recursion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +375,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -388,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,6 +429,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -723,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AF4F45-DB17-4544-B1E2-27F83003D19F}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -735,7 +758,7 @@
     <col min="2" max="2" width="36.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" customWidth="1"/>
     <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1557,11 +1580,49 @@
       <c r="E30" t="s">
         <v>71</v>
       </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
         <v>29</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>102</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1573,8 +1634,9 @@
     <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{64742B6E-4945-4487-AD4E-B471D0EA0E18}"/>
     <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{2D717D5B-6B86-4994-A9C6-2EC8C43359E3}"/>
     <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{B4FC6168-94A0-4027-A839-39CECFFEE25C}"/>
+    <hyperlink ref="J30" r:id="rId8" xr:uid="{CA3E4066-02FF-4307-A4C4-FEE8C19AA79F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB40257-DBCF-40BD-858D-BF9972455217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169C9F76-1BAE-4B9F-A692-9373F4B3F666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E77EBB07-1568-49A8-A221-927405D9D0F7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="87">
   <si>
     <t>Question Number</t>
   </si>
@@ -284,13 +284,25 @@
   </si>
   <si>
     <t>neet to study recursion</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/discuss/340504/C%2B%2B-simple-recursive-(%2B-detail-explanation)</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +393,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -409,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,6 +449,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -746,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AF4F45-DB17-4544-B1E2-27F83003D19F}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1625,6 +1644,72 @@
         <v>81</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>104</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>105</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>121</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{D8D6B0D1-6CE1-4455-8E68-636F36BC7933}"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169C9F76-1BAE-4B9F-A692-9373F4B3F666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E77EBB07-1568-49A8-A221-927405D9D0F7}"/>
+    <workbookView xWindow="-115" yWindow="-115" windowWidth="19423" windowHeight="10426"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="89">
   <si>
     <t>Question Number</t>
   </si>
@@ -296,17 +295,25 @@
   </si>
   <si>
     <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>OnePass, Brute,DP</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Study DP approach</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -314,7 +321,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -322,7 +329,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -335,7 +342,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -399,6 +406,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -452,8 +466,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -764,24 +778,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AF4F45-DB17-4544-B1E2-27F83003D19F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -836,7 +850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -862,7 +876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -888,7 +902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -917,7 +931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -943,7 +957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -969,7 +983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19</v>
       </c>
@@ -995,7 +1009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1021,7 +1035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1047,7 +1061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1076,7 +1090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1102,7 +1116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>39</v>
       </c>
@@ -1131,7 +1145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1160,7 +1174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>49</v>
       </c>
@@ -1189,7 +1203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>53</v>
       </c>
@@ -1218,7 +1232,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>54</v>
       </c>
@@ -1244,7 +1258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>55</v>
       </c>
@@ -1273,7 +1287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>56</v>
       </c>
@@ -1299,7 +1313,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>57</v>
       </c>
@@ -1325,7 +1339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>59</v>
       </c>
@@ -1357,7 +1371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>62</v>
       </c>
@@ -1389,7 +1403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>70</v>
       </c>
@@ -1415,7 +1429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>73</v>
       </c>
@@ -1447,7 +1461,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>76</v>
       </c>
@@ -1470,7 +1484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>79</v>
       </c>
@@ -1502,7 +1516,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>91</v>
       </c>
@@ -1525,7 +1539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>98</v>
       </c>
@@ -1557,7 +1571,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>94</v>
       </c>
@@ -1583,7 +1597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100</v>
       </c>
@@ -1612,7 +1626,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>102</v>
       </c>
@@ -1644,7 +1658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>104</v>
       </c>
@@ -1670,7 +1684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>105</v>
       </c>
@@ -1693,7 +1707,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>121</v>
       </c>
@@ -1706,20 +1720,33 @@
       <c r="D34" t="s">
         <v>8</v>
       </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
       <c r="I34" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{D8D6B0D1-6CE1-4455-8E68-636F36BC7933}"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum" xr:uid="{8BD0DFE9-4257-4C3D-A182-8E6A1B6F585E}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{71B21925-A968-4F90-8E59-5BE483793798}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image" xr:uid="{23CF6859-3595-41DB-A847-1FE1252102DE}"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{64742B6E-4945-4487-AD4E-B471D0EA0E18}"/>
-    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{2D717D5B-6B86-4994-A9C6-2EC8C43359E3}"/>
-    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{B4FC6168-94A0-4027-A839-39CECFFEE25C}"/>
-    <hyperlink ref="J30" r:id="rId8" xr:uid="{CA3E4066-02FF-4307-A4C4-FEE8C19AA79F}"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J30" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51360D96-E6BA-442B-BAB9-21EE2E46EFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-115" yWindow="-115" windowWidth="19423" windowHeight="10426"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="90">
   <si>
     <t>Question Number</t>
   </si>
@@ -303,17 +295,20 @@
   <si>
     <t>Study DP approach</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -321,7 +316,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -329,7 +324,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -342,7 +337,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -408,10 +403,16 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -441,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,10 +465,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -778,24 +780,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -850,7 +852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>3</v>
       </c>
@@ -876,7 +878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>4</v>
       </c>
@@ -902,7 +904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>5</v>
       </c>
@@ -931,7 +933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>11</v>
       </c>
@@ -957,7 +959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>15</v>
       </c>
@@ -983,7 +985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1009,7 +1011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1061,7 +1063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1090,7 +1092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1116,7 +1118,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>39</v>
       </c>
@@ -1145,7 +1147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1174,7 +1176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>49</v>
       </c>
@@ -1203,7 +1205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>53</v>
       </c>
@@ -1232,7 +1234,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>54</v>
       </c>
@@ -1258,7 +1260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>55</v>
       </c>
@@ -1287,7 +1289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>56</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>57</v>
       </c>
@@ -1339,7 +1341,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>59</v>
       </c>
@@ -1371,7 +1373,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>62</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>70</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>73</v>
       </c>
@@ -1461,7 +1463,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>76</v>
       </c>
@@ -1484,7 +1486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>79</v>
       </c>
@@ -1516,7 +1518,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>91</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>98</v>
       </c>
@@ -1571,7 +1573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>94</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>100</v>
       </c>
@@ -1626,7 +1628,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>102</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>104</v>
       </c>
@@ -1684,7 +1686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>105</v>
       </c>
@@ -1707,7 +1709,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>121</v>
       </c>
@@ -1733,20 +1735,40 @@
         <v>88</v>
       </c>
       <c r="I34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>124</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix"/>
-    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
-    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
-    <hyperlink ref="J30" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51360D96-E6BA-442B-BAB9-21EE2E46EFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-115" yWindow="-115" windowWidth="19423" windowHeight="10426"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>Question Number</t>
   </si>
@@ -298,17 +297,24 @@
   </si>
   <si>
     <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -316,7 +322,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -324,7 +330,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -337,7 +343,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -403,13 +409,19 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -442,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,10 +478,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -780,24 +793,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,7 +839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -852,7 +865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -878,7 +891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -904,7 +917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -933,7 +946,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -959,7 +972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -985,7 +998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1011,7 +1024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1037,7 +1050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1063,7 +1076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1092,7 +1105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1118,7 +1131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>39</v>
       </c>
@@ -1147,7 +1160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1176,7 +1189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>49</v>
       </c>
@@ -1205,7 +1218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>53</v>
       </c>
@@ -1234,7 +1247,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>54</v>
       </c>
@@ -1260,7 +1273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>55</v>
       </c>
@@ -1289,7 +1302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>56</v>
       </c>
@@ -1315,7 +1328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>57</v>
       </c>
@@ -1341,7 +1354,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>59</v>
       </c>
@@ -1373,7 +1386,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>62</v>
       </c>
@@ -1405,7 +1418,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>70</v>
       </c>
@@ -1431,7 +1444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>73</v>
       </c>
@@ -1463,7 +1476,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>76</v>
       </c>
@@ -1486,7 +1499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>79</v>
       </c>
@@ -1518,7 +1531,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>91</v>
       </c>
@@ -1541,7 +1554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>98</v>
       </c>
@@ -1573,7 +1586,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>94</v>
       </c>
@@ -1599,7 +1612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100</v>
       </c>
@@ -1628,7 +1641,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>102</v>
       </c>
@@ -1660,7 +1673,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>104</v>
       </c>
@@ -1686,7 +1699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>105</v>
       </c>
@@ -1709,7 +1722,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>121</v>
       </c>
@@ -1738,7 +1751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>124</v>
       </c>
@@ -1755,20 +1768,40 @@
         <v>71</v>
       </c>
       <c r="I35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>125</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J30" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2EF1C7-F0AA-402C-8C39-AB1877A33A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-115" yWindow="-115" windowWidth="19423" windowHeight="10426"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -309,12 +310,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -322,7 +323,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -330,7 +331,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -343,7 +344,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -409,7 +410,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -481,8 +482,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -793,24 +794,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,7 +840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -865,7 +866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>3</v>
       </c>
@@ -891,7 +892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>4</v>
       </c>
@@ -917,7 +918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>5</v>
       </c>
@@ -946,7 +947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>11</v>
       </c>
@@ -972,7 +973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>15</v>
       </c>
@@ -998,7 +999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>39</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>49</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>53</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>54</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>55</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>56</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>57</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>59</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>62</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>70</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>73</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>76</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>79</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>91</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>98</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>94</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>100</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>102</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>104</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>105</v>
       </c>
@@ -1722,7 +1723,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>121</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>124</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15">
       <c r="A36">
         <v>125</v>
       </c>
@@ -1794,14 +1795,14 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix"/>
-    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
-    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
-    <hyperlink ref="J30" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2EF1C7-F0AA-402C-8C39-AB1877A33A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-115" yWindow="-115" windowWidth="19423" windowHeight="10426"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="94">
   <si>
     <t>Question Number</t>
   </si>
@@ -304,18 +303,25 @@
   </si>
   <si>
     <t>String</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Study how is solution O(n)</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -323,7 +329,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -331,7 +337,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -344,7 +350,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -410,7 +416,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -482,8 +488,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -794,24 +800,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,7 +846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -866,7 +872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -892,7 +898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -918,7 +924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -947,7 +953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -973,7 +979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -999,7 +1005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>39</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1190,7 +1196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>49</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>53</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>54</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>55</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>56</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>57</v>
       </c>
@@ -1355,7 +1361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>59</v>
       </c>
@@ -1387,7 +1393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>62</v>
       </c>
@@ -1419,7 +1425,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>70</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>73</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>76</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>79</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>91</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>98</v>
       </c>
@@ -1587,7 +1593,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>94</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100</v>
       </c>
@@ -1642,7 +1648,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>102</v>
       </c>
@@ -1674,7 +1680,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>104</v>
       </c>
@@ -1700,7 +1706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>105</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>121</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>124</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>125</v>
       </c>
@@ -1788,23 +1794,53 @@
       <c r="E36" t="s">
         <v>91</v>
       </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
       <c r="I36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>128</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J30" r:id="rId8"/>
+    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-115" yWindow="-115" windowWidth="19423" windowHeight="10426"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="10430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="105">
   <si>
     <t>Question Number</t>
   </si>
@@ -310,6 +310,48 @@
   </si>
   <si>
     <t>Study how is solution O(n)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashMap,DFS,BFS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>need to understand</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/clone-graph/discuss/1793212/C%2B%2Bor-Detailed-Explanation-w-DFS-and-BFS-or-Commented-code-with-extra-Test-Case</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashMap,DP</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-break/discuss/43814/C%2B%2B-Dynamic-Programming-simple-and-fast-solution-(4ms)-with-optimization</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>need to understand</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +475,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -461,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,6 +534,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -801,20 +850,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1778,7 +1827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>125</v>
       </c>
@@ -1825,6 +1874,70 @@
       </c>
       <c r="I37" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>133</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>139</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1839,8 +1952,10 @@
     <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
     <hyperlink ref="J30" r:id="rId8"/>
     <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence"/>
+    <hyperlink ref="J38" r:id="rId10"/>
+    <hyperlink ref="J39" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="111">
   <si>
     <t>Question Number</t>
   </si>
@@ -353,13 +353,35 @@
   <si>
     <t>need to understand</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedList</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwoPoint(Floyd’s Cycle-Finding Algorithm)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/discuss/1829489/C%2B%2B-oror-Easy-To-Understand-oror-2-Pointer-oror-Fast-and-Slow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +503,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -509,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,6 +563,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -850,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1938,6 +1967,35 @@
       </c>
       <c r="J39" s="15" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>141</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="114">
   <si>
     <t>Question Number</t>
   </si>
@@ -370,18 +370,27 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/discuss/1829489/C%2B%2B-oror-Easy-To-Understand-oror-2-Pointer-oror-Fast-and-Slow</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
     <t>TwoPoint(Floyd’s Cycle-Finding Algorithm)</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode.com/problems/linked-list-cycle/discuss/1829489/C%2B%2B-oror-Easy-To-Understand-oror-2-Pointer-oror-Fast-and-Slow</t>
+    <t>TwoPoint</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorder-list/discuss/1641006/C%2B%2BPython-Simple-Solutions-w-Explanation-or-2-Pointers-O(N)-and-Inplace-O(1)-Space-Approaches</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +518,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -537,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,6 +579,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -879,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1986,16 +2002,45 @@
         <v>108</v>
       </c>
       <c r="F40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
         <v>109</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" t="s">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>143</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="121">
   <si>
     <t>Question Number</t>
   </si>
@@ -384,13 +384,39 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/reorder-list/discuss/1641006/C%2B%2BPython-Simple-Solutions-w-Explanation-or-2-Pointers-O(N)-and-Inplace-O(1)-Space-Approaches</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>need to understand</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-subarray/discuss/183483/JavaC%2B%2BPython-it-can-be-more-simple</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +550,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -552,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,6 +612,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -895,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2041,6 +2074,38 @@
       </c>
       <c r="J41" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>152</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E0C14B-8230-4AD5-BFC7-EC29D0834FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="10430"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="129">
   <si>
     <t>Question Number</t>
   </si>
@@ -410,17 +411,41 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-product-subarray/discuss/183483/JavaC%2B%2BPython-it-can-be-more-simple</t>
+  </si>
+  <si>
+    <t>Maximum Number of Words Found in Sentences</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-number-of-words-found-in-sentences/discuss/1650078/C%2B%2B-Using-STL-std%3A%3Acount</t>
+  </si>
+  <si>
+    <t>Root Equals Sum of Children</t>
+  </si>
+  <si>
+    <t>Camelcase Matching</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/camelcase-matching/discuss/270824/C%2B%2B-4ms-O(queries.length*pattern.length)-No-regex</t>
+  </si>
+  <si>
+    <t>Masking Personal Information</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/masking-personal-information/discuss/643843/C%2B%2B-or-Short-solution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -428,7 +453,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -436,7 +461,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -449,7 +474,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -515,7 +540,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -528,6 +553,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -584,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -613,10 +656,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -927,24 +973,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.796875" customWidth="1"/>
-    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +1019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -999,7 +1045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1025,7 +1071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1051,7 +1097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1080,7 +1126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>11</v>
       </c>
@@ -1106,7 +1152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1132,7 +1178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1158,7 +1204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1184,7 +1230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1210,7 +1256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1239,7 +1285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1265,7 +1311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>39</v>
       </c>
@@ -1294,7 +1340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1323,7 +1369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>49</v>
       </c>
@@ -1352,7 +1398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>53</v>
       </c>
@@ -1381,7 +1427,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>54</v>
       </c>
@@ -1407,7 +1453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>55</v>
       </c>
@@ -1436,7 +1482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>56</v>
       </c>
@@ -1462,7 +1508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>57</v>
       </c>
@@ -1488,7 +1534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>59</v>
       </c>
@@ -1520,7 +1566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>62</v>
       </c>
@@ -1552,7 +1598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>70</v>
       </c>
@@ -1578,7 +1624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>73</v>
       </c>
@@ -1610,7 +1656,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>76</v>
       </c>
@@ -1633,7 +1679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>79</v>
       </c>
@@ -1665,7 +1711,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>91</v>
       </c>
@@ -1688,7 +1734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>98</v>
       </c>
@@ -1720,7 +1766,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>94</v>
       </c>
@@ -1746,7 +1792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>100</v>
       </c>
@@ -1775,7 +1821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>102</v>
       </c>
@@ -1807,7 +1853,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>104</v>
       </c>
@@ -1833,7 +1879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>105</v>
       </c>
@@ -1856,7 +1902,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>121</v>
       </c>
@@ -1885,7 +1931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>124</v>
       </c>
@@ -1905,7 +1951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="15">
       <c r="A36">
         <v>125</v>
       </c>
@@ -1928,7 +1974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>128</v>
       </c>
@@ -1954,7 +2000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>133</v>
       </c>
@@ -1986,7 +2032,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>139</v>
       </c>
@@ -2018,7 +2064,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>141</v>
       </c>
@@ -2047,7 +2093,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>143</v>
       </c>
@@ -2076,7 +2122,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>152</v>
       </c>
@@ -2106,22 +2152,114 @@
       </c>
       <c r="J42" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>2114</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>2236</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>1023</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>831</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix"/>
-    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
-    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
-    <hyperlink ref="J30" r:id="rId8"/>
-    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence"/>
-    <hyperlink ref="J38" r:id="rId10"/>
-    <hyperlink ref="J39" r:id="rId11"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J38" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E0C14B-8230-4AD5-BFC7-EC29D0834FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2D338E-B834-40BA-876E-64CA581B5163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="131">
   <si>
     <t>Question Number</t>
   </si>
@@ -435,6 +435,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/masking-personal-information/discuss/643843/C%2B%2B-or-Short-solution</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>need to understand more</t>
   </si>
 </sst>
 </file>
@@ -974,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2126,7 +2132,7 @@
       <c r="A42">
         <v>152</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C42" t="s">
@@ -2158,7 +2164,7 @@
       <c r="A43">
         <v>2114</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="23" t="s">
         <v>121</v>
       </c>
       <c r="C43" t="s">
@@ -2184,7 +2190,7 @@
       <c r="A44">
         <v>2236</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>124</v>
       </c>
       <c r="C44" t="s">
@@ -2204,7 +2210,7 @@
       <c r="A45">
         <v>1023</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="25" t="s">
         <v>125</v>
       </c>
       <c r="C45" t="s">
@@ -2227,7 +2233,7 @@
       <c r="A46">
         <v>831</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="25" t="s">
         <v>127</v>
       </c>
       <c r="C46" t="s">
@@ -2244,6 +2250,35 @@
       </c>
       <c r="J46" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>153</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2D338E-B834-40BA-876E-64CA581B5163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6225C3-215D-449D-AF13-4CD34F92EE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="137">
   <si>
     <t>Question Number</t>
   </si>
@@ -441,6 +441,24 @@
   </si>
   <si>
     <t>need to understand more</t>
+  </si>
+  <si>
+    <t>Reverse Bits</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-bits/discuss/1232842/JAVA-C%2B%2B-%3A-0ms-or-O(1)-Time-Complexity-or-in-place-or-Detailed-Explanation</t>
+  </si>
+  <si>
+    <t>need to understand for method</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>BitSet</t>
   </si>
 </sst>
 </file>
@@ -980,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2256,7 +2274,7 @@
       <c r="A47">
         <v>153</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C47" t="s">
@@ -2278,6 +2296,64 @@
         <v>130</v>
       </c>
       <c r="I47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>190</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>134</v>
+      </c>
+      <c r="I48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>191</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
         <v>29</v>
       </c>
     </row>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6225C3-215D-449D-AF13-4CD34F92EE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6767568-01CC-4B8A-8881-E5744990B338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="140">
   <si>
     <t>Question Number</t>
   </si>
@@ -459,13 +459,22 @@
   </si>
   <si>
     <t>BitSet</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>need to understand DPhttps://leetcode.com/problems/house-robber/discuss/1605797/C%2B%2BPython-4-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber/discuss/1605797/C%2B%2BPython-4-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +586,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -651,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -683,6 +698,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -998,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2331,7 +2347,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>191</v>
       </c>
@@ -2355,6 +2371,38 @@
       </c>
       <c r="I49" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>198</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>138</v>
+      </c>
+      <c r="I50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2371,8 +2419,9 @@
     <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="J38" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="J39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J50" r:id="rId12" xr:uid="{F89EB72D-B9F6-4931-9285-5616715D9F71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6767568-01CC-4B8A-8881-E5744990B338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBEA91B-5872-4A9A-AACC-512D0C57BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="147">
   <si>
     <t>Question Number</t>
   </si>
@@ -464,17 +464,38 @@
     <t>House Robber</t>
   </si>
   <si>
-    <t>need to understand DPhttps://leetcode.com/problems/house-robber/discuss/1605797/C%2B%2BPython-4-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/house-robber/discuss/1605797/C%2B%2BPython-4-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>DFS,BFS</t>
+  </si>
+  <si>
+    <t>need to understand BFS</t>
+  </si>
+  <si>
+    <t>need to understand DP</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-islands/discuss/56589/C%2B%2B-BFSDFS</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Iteration, Recursion</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/discuss/803955/C%2B%2B-Iterative-vs.-Recursive-Solutions-Compared-and-Explained-~99-Time-~85-Space</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +607,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -666,7 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -699,6 +726,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1014,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2396,13 +2424,74 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
+        <v>142</v>
+      </c>
+      <c r="I50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="I50" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50" s="15" t="s">
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>200</v>
+      </c>
+      <c r="B51" s="28" t="s">
         <v>139</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>141</v>
+      </c>
+      <c r="I51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>206</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBEA91B-5872-4A9A-AACC-512D0C57BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEE6B11-AA01-43BE-88BF-3C180A4E4852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="151">
   <si>
     <t>Question Number</t>
   </si>
@@ -489,13 +489,25 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/reverse-linked-list/discuss/803955/C%2B%2B-Iterative-vs.-Recursive-Solutions-Compared-and-Explained-~99-Time-~85-Space</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Need to understand more</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule/discuss/658275/C%2B%2B-DFS-Easiest-Solution-With-Explanation-(My-1st-approach)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,6 +619,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -693,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -727,6 +745,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1042,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2492,6 +2511,35 @@
       </c>
       <c r="J52" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>207</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEE6B11-AA01-43BE-88BF-3C180A4E4852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="155">
   <si>
     <t>Question Number</t>
   </si>
@@ -491,27 +490,43 @@
     <t>https://leetcode.com/problems/reverse-linked-list/discuss/803955/C%2B%2B-Iterative-vs.-Recursive-Solutions-Compared-and-Explained-~99-Time-~85-Space</t>
   </si>
   <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Need to understand more</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule/discuss/658275/C%2B%2B-DFS-Easiest-Solution-With-Explanation-(My-1st-approach)</t>
+  </si>
+  <si>
     <t>Course Schedule</t>
-  </si>
-  <si>
-    <t>Graph</t>
-  </si>
-  <si>
-    <t>Need to understand more</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/course-schedule/discuss/658275/C%2B%2B-DFS-Easiest-Solution-With-Explanation-(My-1st-approach)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need to understand</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-trie-prefix-tree/discuss/58945/Share-my-C%2B%2B-solutioneasy-to-understand</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -519,7 +534,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -527,7 +542,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -540,7 +555,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -606,7 +621,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -748,8 +763,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1060,24 +1075,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1132,7 +1147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1158,7 +1173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1184,7 +1199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -1239,7 +1254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1265,7 +1280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1291,7 +1306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1317,7 +1332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1343,7 +1358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1372,7 +1387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1398,7 +1413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>39</v>
       </c>
@@ -1427,7 +1442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1456,7 +1471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>49</v>
       </c>
@@ -1485,7 +1500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>53</v>
       </c>
@@ -1514,7 +1529,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>54</v>
       </c>
@@ -1540,7 +1555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>55</v>
       </c>
@@ -1569,7 +1584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>56</v>
       </c>
@@ -1595,7 +1610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>57</v>
       </c>
@@ -1621,7 +1636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>59</v>
       </c>
@@ -1653,7 +1668,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>62</v>
       </c>
@@ -1685,7 +1700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>70</v>
       </c>
@@ -1711,7 +1726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>73</v>
       </c>
@@ -1743,7 +1758,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>76</v>
       </c>
@@ -1766,7 +1781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>79</v>
       </c>
@@ -1798,7 +1813,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>91</v>
       </c>
@@ -1821,7 +1836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>98</v>
       </c>
@@ -1853,7 +1868,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>94</v>
       </c>
@@ -1879,7 +1894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100</v>
       </c>
@@ -1908,7 +1923,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>102</v>
       </c>
@@ -1940,7 +1955,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>104</v>
       </c>
@@ -1966,7 +1981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>105</v>
       </c>
@@ -1989,7 +2004,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>121</v>
       </c>
@@ -2018,7 +2033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>124</v>
       </c>
@@ -2038,7 +2053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>125</v>
       </c>
@@ -2061,7 +2076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>128</v>
       </c>
@@ -2087,7 +2102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>133</v>
       </c>
@@ -2119,7 +2134,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>139</v>
       </c>
@@ -2151,7 +2166,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>141</v>
       </c>
@@ -2180,7 +2195,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>143</v>
       </c>
@@ -2209,7 +2224,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>152</v>
       </c>
@@ -2241,7 +2256,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2114</v>
       </c>
@@ -2267,7 +2282,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2236</v>
       </c>
@@ -2287,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1023</v>
       </c>
@@ -2310,7 +2325,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>831</v>
       </c>
@@ -2333,7 +2348,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>153</v>
       </c>
@@ -2362,7 +2377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>190</v>
       </c>
@@ -2394,7 +2409,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>191</v>
       </c>
@@ -2420,7 +2435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>198</v>
       </c>
@@ -2452,7 +2467,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>200</v>
       </c>
@@ -2484,7 +2499,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>206</v>
       </c>
@@ -2513,50 +2528,79 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>207</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
         <v>147</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
-        <v>148</v>
       </c>
       <c r="F53" t="s">
         <v>140</v>
       </c>
       <c r="H53" t="s">
+        <v>148</v>
+      </c>
+      <c r="I53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" t="s">
         <v>149</v>
       </c>
-      <c r="I53" t="s">
-        <v>29</v>
-      </c>
-      <c r="J53" t="s">
-        <v>150</v>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>208</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>152</v>
+      </c>
+      <c r="I54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J38" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J50" r:id="rId12" xr:uid="{F89EB72D-B9F6-4931-9285-5616715D9F71}"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J30" r:id="rId8"/>
+    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence"/>
+    <hyperlink ref="J38" r:id="rId10"/>
+    <hyperlink ref="J39" r:id="rId11"/>
+    <hyperlink ref="J50" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="161">
   <si>
     <t>Question Number</t>
   </si>
@@ -516,13 +516,33 @@
   <si>
     <t>Implement Trie (Prefix Tree)</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-add-and-search-words-data-structure/discuss/59552/C%2B%2B-Trie</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backtracking, DFS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-search-ii/discuss/878708/C%2B%2BPython-Backtracking-with-Trie-Clean-and-Concise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +654,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -726,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,6 +787,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1076,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2573,9 +2600,6 @@
       <c r="E54" t="s">
         <v>151</v>
       </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
       <c r="H54" t="s">
         <v>152</v>
       </c>
@@ -2584,6 +2608,64 @@
       </c>
       <c r="J54" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>211</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" t="s">
+        <v>152</v>
+      </c>
+      <c r="I55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>212</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>152</v>
+      </c>
+      <c r="I56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="170">
   <si>
     <t>Question Number</t>
   </si>
@@ -536,13 +536,46 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/word-search-ii/discuss/878708/C%2B%2BPython-Backtracking-with-Trie-Clean-and-Concise</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber-ii/discuss/59921/9-lines-0ms-O(1)-Space-C%2B%2B-solution</t>
+  </si>
+  <si>
+    <t>House Robber II</t>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hashmap</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,6 +687,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -752,7 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,6 +827,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1103,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2666,6 +2706,61 @@
       </c>
       <c r="J56" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>213</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" t="s">
+        <v>165</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>152</v>
+      </c>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>217</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" t="s">
+        <v>165</v>
+      </c>
+      <c r="F58" t="s">
+        <v>169</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="177">
   <si>
     <t>Question Number</t>
   </si>
@@ -556,7 +556,23 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>Easy</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hashmap</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>Contains Duplicate</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
   </si>
   <si>
     <t>Easy</t>
@@ -567,15 +583,26 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>Hashmap</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <t>Tree</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can to understad BFS,DFS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/invert-binary-tree/discuss/62891/C%2B%2B-no-recursion-clean-BFS-solution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,6 +714,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -791,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -828,6 +861,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1143,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2741,26 +2775,58 @@
       <c r="A58">
         <v>217</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" t="s">
         <v>166</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>167</v>
-      </c>
-      <c r="D58" t="s">
-        <v>168</v>
       </c>
       <c r="E58" t="s">
         <v>165</v>
       </c>
       <c r="F58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>226</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" t="s">
+        <v>173</v>
+      </c>
+      <c r="F59" t="s">
+        <v>174</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>175</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="181">
   <si>
     <t>Question Number</t>
   </si>
@@ -596,13 +596,28 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/invert-binary-tree/discuss/62891/C%2B%2B-no-recursion-clean-BFS-solution</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,6 +729,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -824,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,6 +883,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1177,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2827,6 +2849,32 @@
       </c>
       <c r="J59" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>230</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" t="s">
+        <v>174</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="187">
   <si>
     <t>Question Number</t>
   </si>
@@ -610,6 +610,28 @@
   </si>
   <si>
     <t>Tree</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need to understant others answer</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/discuss/64980/C%2B%2B-Recursive-and-Iterative</t>
+  </si>
+  <si>
+    <t>Iterative, Recursion</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +639,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,6 +751,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -845,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -884,6 +912,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1199,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2873,8 +2902,40 @@
       <c r="G60">
         <v>1</v>
       </c>
+      <c r="H60" t="s">
+        <v>181</v>
+      </c>
       <c r="I60" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>235</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" t="s">
+        <v>186</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="199">
   <si>
     <t>Question Number</t>
   </si>
@@ -632,6 +632,52 @@
   </si>
   <si>
     <t>Iterative, Recursion</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefix and Suffix</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to understand Prefix </t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self/discuss/65627/O(n)-time-and-O(1)-space-C%2B%2B-solution-with-explanation
+https://leetcode.com/problems/product-of-array-except-self/discuss/1610450/Attention-No-One-Going-to-Explain-like-this</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-anagram/discuss/66519/2-C%2B%2B-Solutions-with-Explanations</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hashmap</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +685,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +797,18 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -873,7 +931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -913,6 +971,8 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1228,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2936,6 +2996,67 @@
       </c>
       <c r="J61" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>238</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" t="s">
+        <v>190</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>191</v>
+      </c>
+      <c r="I62" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>242</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" t="s">
+        <v>198</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7AB655-3EC1-4336-A7FB-949A2A022003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="205">
   <si>
     <t>Question Number</t>
   </si>
@@ -679,17 +680,35 @@
   <si>
     <t>Hashmap</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting Rooms</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5240774.html</t>
+  </si>
+  <si>
+    <t>It's must subscibe</t>
+  </si>
+  <si>
+    <t>253. Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -697,7 +716,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -705,7 +724,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -718,7 +737,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -784,7 +803,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -975,8 +994,8 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1287,24 +1306,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.796875" customWidth="1"/>
-    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1359,7 +1378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1385,7 +1404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1411,7 +1430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1440,7 +1459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>11</v>
       </c>
@@ -1466,7 +1485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1492,7 +1511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1518,7 +1537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1544,7 +1563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1570,7 +1589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1599,7 +1618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1625,7 +1644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>39</v>
       </c>
@@ -1654,7 +1673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1683,7 +1702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>49</v>
       </c>
@@ -1712,7 +1731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>53</v>
       </c>
@@ -1741,7 +1760,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>54</v>
       </c>
@@ -1767,7 +1786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>55</v>
       </c>
@@ -1796,7 +1815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>56</v>
       </c>
@@ -1822,7 +1841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>57</v>
       </c>
@@ -1848,7 +1867,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>59</v>
       </c>
@@ -1880,7 +1899,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>62</v>
       </c>
@@ -1912,7 +1931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>70</v>
       </c>
@@ -1938,7 +1957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>73</v>
       </c>
@@ -1970,7 +1989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>76</v>
       </c>
@@ -1993,7 +2012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>79</v>
       </c>
@@ -2025,7 +2044,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>91</v>
       </c>
@@ -2048,7 +2067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>98</v>
       </c>
@@ -2080,7 +2099,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2106,7 +2125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>100</v>
       </c>
@@ -2135,7 +2154,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>102</v>
       </c>
@@ -2167,7 +2186,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>104</v>
       </c>
@@ -2193,7 +2212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>105</v>
       </c>
@@ -2216,7 +2235,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>121</v>
       </c>
@@ -2245,7 +2264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>124</v>
       </c>
@@ -2265,7 +2284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="15">
       <c r="A36">
         <v>125</v>
       </c>
@@ -2288,7 +2307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>128</v>
       </c>
@@ -2314,7 +2333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>133</v>
       </c>
@@ -2346,7 +2365,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>139</v>
       </c>
@@ -2378,7 +2397,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>141</v>
       </c>
@@ -2407,7 +2426,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>143</v>
       </c>
@@ -2436,7 +2455,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>152</v>
       </c>
@@ -2468,7 +2487,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>2114</v>
       </c>
@@ -2494,7 +2513,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>2236</v>
       </c>
@@ -2514,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>1023</v>
       </c>
@@ -2537,7 +2556,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>831</v>
       </c>
@@ -2560,7 +2579,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>153</v>
       </c>
@@ -2589,7 +2608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>190</v>
       </c>
@@ -2621,7 +2640,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>191</v>
       </c>
@@ -2647,7 +2666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>198</v>
       </c>
@@ -2679,7 +2698,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>200</v>
       </c>
@@ -2711,7 +2730,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>206</v>
       </c>
@@ -2740,7 +2759,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>207</v>
       </c>
@@ -2769,7 +2788,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>208</v>
       </c>
@@ -2795,7 +2814,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>211</v>
       </c>
@@ -2821,7 +2840,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>212</v>
       </c>
@@ -2853,7 +2872,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>213</v>
       </c>
@@ -2882,7 +2901,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>217</v>
       </c>
@@ -2908,7 +2927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>226</v>
       </c>
@@ -2940,7 +2959,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>230</v>
       </c>
@@ -2969,7 +2988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>235</v>
       </c>
@@ -2998,7 +3017,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>238</v>
       </c>
@@ -3030,11 +3049,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>242</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C63" t="s">
@@ -3057,25 +3076,126 @@
       </c>
       <c r="J63" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>252</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>201</v>
+      </c>
+      <c r="I64" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>253</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>201</v>
+      </c>
+      <c r="I65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>261</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" t="s">
+        <v>201</v>
+      </c>
+      <c r="I66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>268</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix"/>
-    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
-    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
-    <hyperlink ref="J30" r:id="rId8"/>
-    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence"/>
-    <hyperlink ref="J38" r:id="rId10"/>
-    <hyperlink ref="J39" r:id="rId11"/>
-    <hyperlink ref="J50" r:id="rId12"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J38" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B64" r:id="rId13" display="https://leetcode.com/problems/meeting-rooms" xr:uid="{FE0F9829-5F7B-400B-A6E0-D2D1C5D0A431}"/>
+    <hyperlink ref="B65" r:id="rId14" display="https://leetcode.com/problems/meeting-rooms-ii" xr:uid="{6ED9F148-A2C2-46E5-B771-AFAF47095B9F}"/>
+    <hyperlink ref="B66" r:id="rId15" display="https://leetcode.com/problems/graph-valid-tree" xr:uid="{0C5E078E-6017-4D33-BB3E-3DCF39D075E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7AB655-3EC1-4336-A7FB-949A2A022003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="222">
   <si>
     <t>Question Number</t>
   </si>
@@ -698,17 +697,80 @@
   </si>
   <si>
     <t>Missing Number</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alien Dictionary 另类字典</t>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5250200.html</t>
+  </si>
+  <si>
+    <t>Understand bit manipulation</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encode and Decode Strings 加码解码字符串</t>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-median-from-data-stream/discuss/1330646/C%2B%2BJavaPython-MinHeap-MaxHeap-Solution-Picture-explain-Clean-and-Concise</t>
+  </si>
+  <si>
+    <t>Priority_queue</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -716,7 +778,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -724,7 +786,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -737,7 +799,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -803,7 +865,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -950,7 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -991,11 +1053,17 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1306,24 +1374,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1378,7 +1446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1404,7 +1472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1430,7 +1498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1459,7 +1527,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -1485,7 +1553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1511,7 +1579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1537,7 +1605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1563,7 +1631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1589,7 +1657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1618,7 +1686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1644,7 +1712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>39</v>
       </c>
@@ -1673,7 +1741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1702,7 +1770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>49</v>
       </c>
@@ -1731,7 +1799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>53</v>
       </c>
@@ -1760,7 +1828,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>54</v>
       </c>
@@ -1786,7 +1854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>55</v>
       </c>
@@ -1815,7 +1883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>56</v>
       </c>
@@ -1841,7 +1909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>57</v>
       </c>
@@ -1867,7 +1935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>59</v>
       </c>
@@ -1899,7 +1967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>62</v>
       </c>
@@ -1931,7 +1999,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>70</v>
       </c>
@@ -1957,7 +2025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>73</v>
       </c>
@@ -1989,7 +2057,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>76</v>
       </c>
@@ -2012,7 +2080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>79</v>
       </c>
@@ -2044,7 +2112,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>91</v>
       </c>
@@ -2067,7 +2135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>98</v>
       </c>
@@ -2099,7 +2167,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2125,7 +2193,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100</v>
       </c>
@@ -2154,7 +2222,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>102</v>
       </c>
@@ -2186,7 +2254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>104</v>
       </c>
@@ -2212,7 +2280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>105</v>
       </c>
@@ -2235,7 +2303,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>121</v>
       </c>
@@ -2264,7 +2332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>124</v>
       </c>
@@ -2284,7 +2352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>125</v>
       </c>
@@ -2307,7 +2375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>128</v>
       </c>
@@ -2333,7 +2401,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>133</v>
       </c>
@@ -2365,7 +2433,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>139</v>
       </c>
@@ -2397,7 +2465,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>141</v>
       </c>
@@ -2426,7 +2494,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>143</v>
       </c>
@@ -2455,7 +2523,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>152</v>
       </c>
@@ -2487,7 +2555,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2114</v>
       </c>
@@ -2513,7 +2581,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2236</v>
       </c>
@@ -2533,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1023</v>
       </c>
@@ -2556,7 +2624,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>831</v>
       </c>
@@ -2579,7 +2647,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>153</v>
       </c>
@@ -2608,7 +2676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>190</v>
       </c>
@@ -2640,7 +2708,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>191</v>
       </c>
@@ -2666,7 +2734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>198</v>
       </c>
@@ -2698,7 +2766,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>200</v>
       </c>
@@ -2730,7 +2798,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>206</v>
       </c>
@@ -2759,7 +2827,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>207</v>
       </c>
@@ -2788,7 +2856,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>208</v>
       </c>
@@ -2814,7 +2882,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>211</v>
       </c>
@@ -2840,7 +2908,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>212</v>
       </c>
@@ -2872,7 +2940,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>213</v>
       </c>
@@ -2901,7 +2969,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>217</v>
       </c>
@@ -2927,7 +2995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>226</v>
       </c>
@@ -2959,7 +3027,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>230</v>
       </c>
@@ -2988,7 +3056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>235</v>
       </c>
@@ -3017,7 +3085,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>238</v>
       </c>
@@ -3049,7 +3117,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>242</v>
       </c>
@@ -3078,7 +3146,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>252</v>
       </c>
@@ -3107,7 +3175,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>253</v>
       </c>
@@ -3130,7 +3198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>261</v>
       </c>
@@ -3153,11 +3221,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>268</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C67" t="s">
@@ -3172,30 +3240,121 @@
       <c r="G67">
         <v>1</v>
       </c>
+      <c r="H67" t="s">
+        <v>209</v>
+      </c>
       <c r="I67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>269</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" t="s">
+        <v>207</v>
+      </c>
+      <c r="I68" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>271</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" t="s">
+        <v>212</v>
+      </c>
+      <c r="I69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>295</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" t="s">
+        <v>216</v>
+      </c>
+      <c r="F70" t="s">
+        <v>218</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>297</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" t="s">
+        <v>220</v>
+      </c>
+      <c r="E71" t="s">
+        <v>221</v>
+      </c>
+      <c r="I71" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J38" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B64" r:id="rId13" display="https://leetcode.com/problems/meeting-rooms" xr:uid="{FE0F9829-5F7B-400B-A6E0-D2D1C5D0A431}"/>
-    <hyperlink ref="B65" r:id="rId14" display="https://leetcode.com/problems/meeting-rooms-ii" xr:uid="{6ED9F148-A2C2-46E5-B771-AFAF47095B9F}"/>
-    <hyperlink ref="B66" r:id="rId15" display="https://leetcode.com/problems/graph-valid-tree" xr:uid="{0C5E078E-6017-4D33-BB3E-3DCF39D075E0}"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J30" r:id="rId8"/>
+    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence"/>
+    <hyperlink ref="J38" r:id="rId10"/>
+    <hyperlink ref="J39" r:id="rId11"/>
+    <hyperlink ref="J50" r:id="rId12"/>
+    <hyperlink ref="B64" r:id="rId13" display="https://leetcode.com/problems/meeting-rooms"/>
+    <hyperlink ref="B65" r:id="rId14" display="https://leetcode.com/problems/meeting-rooms-ii"/>
+    <hyperlink ref="B66" r:id="rId15" display="https://leetcode.com/problems/graph-valid-tree"/>
+    <hyperlink ref="B68" r:id="rId16" display="https://www.cnblogs.com/grandyang/p/5250200.html"/>
+    <hyperlink ref="B69" r:id="rId17" display="https://www.cnblogs.com/grandyang/p/5265628.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="234">
   <si>
     <t>Question Number</t>
   </si>
@@ -760,13 +760,57 @@
   <si>
     <t>Tree</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP, Binary Tree</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-increasing-subsequence/discuss/1326308/C%2B%2BPython-DP-Binary-Search-BIT-Solutions-Picture-explain-O(NlogN)</t>
+  </si>
+  <si>
+    <t>Need to understand other</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5138186.html</t>
+  </si>
+  <si>
+    <t>Need to understand</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin Change 硬币找零</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,6 +922,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1012,7 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1060,6 +1110,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1375,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3331,6 +3382,70 @@
       </c>
       <c r="I71" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>300</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72" t="s">
+        <v>224</v>
+      </c>
+      <c r="E72" t="s">
+        <v>225</v>
+      </c>
+      <c r="F72" t="s">
+        <v>226</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>228</v>
+      </c>
+      <c r="I72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>322</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" t="s">
+        <v>232</v>
+      </c>
+      <c r="F73" t="s">
+        <v>231</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>230</v>
+      </c>
+      <c r="I73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3353,8 +3468,9 @@
     <hyperlink ref="B66" r:id="rId15" display="https://leetcode.com/problems/graph-valid-tree"/>
     <hyperlink ref="B68" r:id="rId16" display="https://www.cnblogs.com/grandyang/p/5250200.html"/>
     <hyperlink ref="B69" r:id="rId17" display="https://www.cnblogs.com/grandyang/p/5265628.html"/>
+    <hyperlink ref="B73" r:id="rId18" display="https://www.cnblogs.com/grandyang/p/5138186.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F8FB42-7078-4F5F-AC75-371030552D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="240">
   <si>
     <t>Question Number</t>
   </si>
@@ -804,17 +805,35 @@
   </si>
   <si>
     <t>Coin Change 硬币找零</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5166356.html</t>
+  </si>
+  <si>
+    <t>Counting Bits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/counting-bits/discuss/1808016/C%2B%2B-oror-Vectors-Only-oror-Easy-To-Understand-oror-Full-Explanation</t>
+  </si>
+  <si>
+    <t>Need to understand DP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -822,7 +841,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -830,7 +849,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -843,7 +862,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -909,7 +928,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -922,6 +941,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1062,7 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1111,10 +1136,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1425,24 +1451,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.796875" customWidth="1"/>
-    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.81640625" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +1497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1497,7 +1523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1523,7 +1549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1549,7 +1575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1578,7 +1604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>11</v>
       </c>
@@ -1604,7 +1630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1630,7 +1656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1656,7 +1682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1682,7 +1708,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1708,7 +1734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1737,7 +1763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1763,7 +1789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>39</v>
       </c>
@@ -1792,7 +1818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1821,7 +1847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>49</v>
       </c>
@@ -1850,7 +1876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>53</v>
       </c>
@@ -1879,7 +1905,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>54</v>
       </c>
@@ -1905,7 +1931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>55</v>
       </c>
@@ -1934,7 +1960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>56</v>
       </c>
@@ -1960,7 +1986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>57</v>
       </c>
@@ -1986,7 +2012,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>59</v>
       </c>
@@ -2018,7 +2044,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>62</v>
       </c>
@@ -2050,7 +2076,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>70</v>
       </c>
@@ -2076,7 +2102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>73</v>
       </c>
@@ -2108,7 +2134,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>76</v>
       </c>
@@ -2131,7 +2157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>79</v>
       </c>
@@ -2163,7 +2189,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>91</v>
       </c>
@@ -2186,7 +2212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>98</v>
       </c>
@@ -2218,7 +2244,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2244,7 +2270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>100</v>
       </c>
@@ -2273,7 +2299,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>102</v>
       </c>
@@ -2305,7 +2331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>104</v>
       </c>
@@ -2331,7 +2357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>105</v>
       </c>
@@ -2354,7 +2380,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>121</v>
       </c>
@@ -2383,7 +2409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>124</v>
       </c>
@@ -2403,7 +2429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="15">
       <c r="A36">
         <v>125</v>
       </c>
@@ -2426,7 +2452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>128</v>
       </c>
@@ -2452,7 +2478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>133</v>
       </c>
@@ -2484,7 +2510,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>139</v>
       </c>
@@ -2516,7 +2542,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>141</v>
       </c>
@@ -2545,7 +2571,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>143</v>
       </c>
@@ -2574,7 +2600,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>152</v>
       </c>
@@ -2606,7 +2632,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>2114</v>
       </c>
@@ -2632,7 +2658,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>2236</v>
       </c>
@@ -2652,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>1023</v>
       </c>
@@ -2675,7 +2701,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>831</v>
       </c>
@@ -2698,7 +2724,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>153</v>
       </c>
@@ -2727,7 +2753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>190</v>
       </c>
@@ -2759,7 +2785,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>191</v>
       </c>
@@ -2785,7 +2811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>198</v>
       </c>
@@ -2817,7 +2843,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>200</v>
       </c>
@@ -2849,7 +2875,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>206</v>
       </c>
@@ -2878,7 +2904,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>207</v>
       </c>
@@ -2907,7 +2933,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>208</v>
       </c>
@@ -2933,7 +2959,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>211</v>
       </c>
@@ -2959,7 +2985,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>212</v>
       </c>
@@ -2991,7 +3017,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>213</v>
       </c>
@@ -3020,7 +3046,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>217</v>
       </c>
@@ -3046,7 +3072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>226</v>
       </c>
@@ -3078,7 +3104,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>230</v>
       </c>
@@ -3107,7 +3133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>235</v>
       </c>
@@ -3136,7 +3162,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>238</v>
       </c>
@@ -3168,7 +3194,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>242</v>
       </c>
@@ -3197,7 +3223,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>252</v>
       </c>
@@ -3226,7 +3252,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>253</v>
       </c>
@@ -3249,7 +3275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>261</v>
       </c>
@@ -3272,7 +3298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>268</v>
       </c>
@@ -3298,7 +3324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>269</v>
       </c>
@@ -3318,7 +3344,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>271</v>
       </c>
@@ -3335,7 +3361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>295</v>
       </c>
@@ -3364,7 +3390,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>297</v>
       </c>
@@ -3384,7 +3410,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>300</v>
       </c>
@@ -3416,7 +3442,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>322</v>
       </c>
@@ -3446,29 +3472,90 @@
       </c>
       <c r="J73" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>323</v>
+      </c>
+      <c r="B74" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F74" t="s">
+        <v>235</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>338</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>239</v>
+      </c>
+      <c r="I75" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix"/>
-    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
-    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
-    <hyperlink ref="J30" r:id="rId8"/>
-    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence"/>
-    <hyperlink ref="J38" r:id="rId10"/>
-    <hyperlink ref="J39" r:id="rId11"/>
-    <hyperlink ref="J50" r:id="rId12"/>
-    <hyperlink ref="B64" r:id="rId13" display="https://leetcode.com/problems/meeting-rooms"/>
-    <hyperlink ref="B65" r:id="rId14" display="https://leetcode.com/problems/meeting-rooms-ii"/>
-    <hyperlink ref="B66" r:id="rId15" display="https://leetcode.com/problems/graph-valid-tree"/>
-    <hyperlink ref="B68" r:id="rId16" display="https://www.cnblogs.com/grandyang/p/5250200.html"/>
-    <hyperlink ref="B69" r:id="rId17" display="https://www.cnblogs.com/grandyang/p/5265628.html"/>
-    <hyperlink ref="B73" r:id="rId18" display="https://www.cnblogs.com/grandyang/p/5138186.html"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J38" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B64" r:id="rId13" display="https://leetcode.com/problems/meeting-rooms" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B65" r:id="rId14" display="https://leetcode.com/problems/meeting-rooms-ii" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B66" r:id="rId15" display="https://leetcode.com/problems/graph-valid-tree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B68" r:id="rId16" display="https://www.cnblogs.com/grandyang/p/5250200.html" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B69" r:id="rId17" display="https://www.cnblogs.com/grandyang/p/5265628.html" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B73" r:id="rId18" display="https://www.cnblogs.com/grandyang/p/5138186.html" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F8FB42-7078-4F5F-AC75-371030552D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55B6E8B-1291-4858-B40D-8602ABB45EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="246">
   <si>
     <t>Question Number</t>
   </si>
@@ -823,13 +823,31 @@
   </si>
   <si>
     <t>Need to understand DP</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/top-k-frequent-elements/discuss/81676/C%2B%2B-O(nlogk)-and-O(n)-solutions</t>
+  </si>
+  <si>
+    <t>Hashmap,bucket sort</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-two-integers/discuss/84305/Share-my-C%2B%2B-solutionseasy-to-understand</t>
+  </si>
+  <si>
+    <t>Sum of Two Integers</t>
+  </si>
+  <si>
+    <t>Bit manipulation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,6 +959,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1087,7 +1111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1137,6 +1161,7 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1452,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3533,6 +3558,70 @@
       </c>
       <c r="J75" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>347</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>242</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>371</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77" t="s">
+        <v>245</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>152</v>
+      </c>
+      <c r="I77" t="s">
+        <v>29</v>
+      </c>
+      <c r="J77" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55B6E8B-1291-4858-B40D-8602ABB45EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4494B56-9462-468F-A593-9B33E92EDFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="248">
   <si>
     <t>Question Number</t>
   </si>
@@ -841,13 +841,19 @@
   </si>
   <si>
     <t>Bit manipulation</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pacific-atlantic-water-flow/discuss/1126938/Short-and-Easy-w-Explanation-and-diagrams-or-Simple-Graph-traversals-DFS-and-BFS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,6 +965,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1111,7 +1123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1162,6 +1174,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1477,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3622,6 +3635,38 @@
       </c>
       <c r="J77" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
+        <v>417</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>147</v>
+      </c>
+      <c r="F78" t="s">
+        <v>140</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>152</v>
+      </c>
+      <c r="I78" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4494B56-9462-468F-A593-9B33E92EDFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2BFC66-6819-4AF0-856A-761E4813CCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="251">
   <si>
     <t>Question Number</t>
   </si>
@@ -847,13 +847,22 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/pacific-atlantic-water-flow/discuss/1126938/Short-and-Easy-w-Explanation-and-diagrams-or-Simple-Graph-traversals-DFS-and-BFS</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>Sliding Windows</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-repeating-character-replacement/discuss/1165332/Easy-Understanding-or-Sliding-Window-Approach-or-Clean-Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,6 +974,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1123,7 +1138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1175,6 +1190,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1490,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3667,6 +3683,38 @@
       </c>
       <c r="J78" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79">
+        <v>424</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" t="s">
+        <v>249</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>152</v>
+      </c>
+      <c r="I79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2BFC66-6819-4AF0-856A-761E4813CCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="264">
   <si>
     <t>Question Number</t>
   </si>
@@ -856,17 +855,65 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-repeating-character-replacement/discuss/1165332/Easy-Understanding-or-Sliding-Window-Approach-or-Clean-Code</t>
+  </si>
+  <si>
+    <t>Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/non-overlapping-intervals/discuss/792726/C%2B%2B-Simple-O(NlogN)-solution-with-explanation</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subtree-of-another-tree/discuss/1160972/C%2B%2B-solution-using-tree-traversal-with-explanation-(explained)</t>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palindromic Substrings</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -874,7 +921,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -882,7 +929,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -895,7 +942,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -961,7 +1008,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -974,6 +1021,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1138,7 +1191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1191,10 +1244,11 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1505,24 +1559,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.81640625" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.796875" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1577,7 +1631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1603,7 +1657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1629,7 +1683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1658,7 +1712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -1684,7 +1738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1710,7 +1764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1736,7 +1790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1762,7 +1816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1788,7 +1842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1817,7 +1871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1843,7 +1897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>39</v>
       </c>
@@ -1872,7 +1926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1901,7 +1955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>49</v>
       </c>
@@ -1930,7 +1984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>53</v>
       </c>
@@ -1959,7 +2013,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>54</v>
       </c>
@@ -1985,7 +2039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>55</v>
       </c>
@@ -2014,7 +2068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>56</v>
       </c>
@@ -2040,7 +2094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>57</v>
       </c>
@@ -2066,7 +2120,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>59</v>
       </c>
@@ -2098,7 +2152,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>62</v>
       </c>
@@ -2130,7 +2184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>70</v>
       </c>
@@ -2156,7 +2210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>73</v>
       </c>
@@ -2188,7 +2242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>76</v>
       </c>
@@ -2211,7 +2265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>79</v>
       </c>
@@ -2243,7 +2297,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>91</v>
       </c>
@@ -2266,7 +2320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>98</v>
       </c>
@@ -2298,7 +2352,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2324,7 +2378,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100</v>
       </c>
@@ -2353,7 +2407,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>102</v>
       </c>
@@ -2385,7 +2439,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>104</v>
       </c>
@@ -2411,7 +2465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>105</v>
       </c>
@@ -2434,7 +2488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>121</v>
       </c>
@@ -2463,7 +2517,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>124</v>
       </c>
@@ -2483,7 +2537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>125</v>
       </c>
@@ -2506,7 +2560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>128</v>
       </c>
@@ -2532,7 +2586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>133</v>
       </c>
@@ -2564,7 +2618,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>139</v>
       </c>
@@ -2596,7 +2650,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>141</v>
       </c>
@@ -2625,7 +2679,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>143</v>
       </c>
@@ -2654,7 +2708,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>152</v>
       </c>
@@ -2686,7 +2740,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2114</v>
       </c>
@@ -2712,7 +2766,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2236</v>
       </c>
@@ -2732,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1023</v>
       </c>
@@ -2755,7 +2809,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>831</v>
       </c>
@@ -2778,7 +2832,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>153</v>
       </c>
@@ -2807,7 +2861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>190</v>
       </c>
@@ -2839,7 +2893,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>191</v>
       </c>
@@ -2865,7 +2919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>198</v>
       </c>
@@ -2897,7 +2951,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>200</v>
       </c>
@@ -2929,7 +2983,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>206</v>
       </c>
@@ -2958,7 +3012,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>207</v>
       </c>
@@ -2987,7 +3041,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>208</v>
       </c>
@@ -3013,7 +3067,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>211</v>
       </c>
@@ -3039,7 +3093,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>212</v>
       </c>
@@ -3071,7 +3125,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>213</v>
       </c>
@@ -3100,7 +3154,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>217</v>
       </c>
@@ -3126,7 +3180,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>226</v>
       </c>
@@ -3158,7 +3212,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>230</v>
       </c>
@@ -3187,7 +3241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>235</v>
       </c>
@@ -3216,7 +3270,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>238</v>
       </c>
@@ -3248,7 +3302,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>242</v>
       </c>
@@ -3277,7 +3331,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>252</v>
       </c>
@@ -3306,7 +3360,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>253</v>
       </c>
@@ -3329,7 +3383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>261</v>
       </c>
@@ -3352,7 +3406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>268</v>
       </c>
@@ -3378,7 +3432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>269</v>
       </c>
@@ -3398,7 +3452,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>271</v>
       </c>
@@ -3415,7 +3469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>295</v>
       </c>
@@ -3444,7 +3498,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>297</v>
       </c>
@@ -3464,7 +3518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>300</v>
       </c>
@@ -3496,7 +3550,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>322</v>
       </c>
@@ -3528,7 +3582,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>323</v>
       </c>
@@ -3557,7 +3611,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>338</v>
       </c>
@@ -3589,7 +3643,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>347</v>
       </c>
@@ -3621,7 +3675,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>371</v>
       </c>
@@ -3653,7 +3707,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>417</v>
       </c>
@@ -3685,7 +3739,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>424</v>
       </c>
@@ -3715,29 +3769,101 @@
       </c>
       <c r="J79" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>435</v>
+      </c>
+      <c r="B80" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" t="s">
+        <v>253</v>
+      </c>
+      <c r="E80" t="s">
+        <v>254</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>572</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" t="s">
+        <v>257</v>
+      </c>
+      <c r="D81" t="s">
+        <v>259</v>
+      </c>
+      <c r="E81" t="s">
+        <v>260</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>29</v>
+      </c>
+      <c r="J81" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>674</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C82" t="s">
+        <v>262</v>
+      </c>
+      <c r="D82" t="s">
+        <v>259</v>
+      </c>
+      <c r="E82" t="s">
+        <v>263</v>
+      </c>
+      <c r="I82" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J38" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B64" r:id="rId13" display="https://leetcode.com/problems/meeting-rooms" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B65" r:id="rId14" display="https://leetcode.com/problems/meeting-rooms-ii" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B66" r:id="rId15" display="https://leetcode.com/problems/graph-valid-tree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B68" r:id="rId16" display="https://www.cnblogs.com/grandyang/p/5250200.html" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B69" r:id="rId17" display="https://www.cnblogs.com/grandyang/p/5265628.html" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B73" r:id="rId18" display="https://www.cnblogs.com/grandyang/p/5138186.html" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J30" r:id="rId8"/>
+    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence"/>
+    <hyperlink ref="J38" r:id="rId10"/>
+    <hyperlink ref="J39" r:id="rId11"/>
+    <hyperlink ref="J50" r:id="rId12"/>
+    <hyperlink ref="B64" r:id="rId13" display="https://leetcode.com/problems/meeting-rooms"/>
+    <hyperlink ref="B65" r:id="rId14" display="https://leetcode.com/problems/meeting-rooms-ii"/>
+    <hyperlink ref="B66" r:id="rId15" display="https://leetcode.com/problems/graph-valid-tree"/>
+    <hyperlink ref="B68" r:id="rId16" display="https://www.cnblogs.com/grandyang/p/5250200.html"/>
+    <hyperlink ref="B69" r:id="rId17" display="https://www.cnblogs.com/grandyang/p/5265628.html"/>
+    <hyperlink ref="B73" r:id="rId18" display="https://www.cnblogs.com/grandyang/p/5138186.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2BFC66-6819-4AF0-856A-761E4813CCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF6EA2D-25D1-456E-9F8A-2FBC1E09FCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="253">
   <si>
     <t>Question Number</t>
   </si>
@@ -856,13 +856,19 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-repeating-character-replacement/discuss/1165332/Easy-Understanding-or-Sliding-Window-Approach-or-Clean-Code</t>
+  </si>
+  <si>
+    <t>Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindromic-substrings/discuss/475745/C%2B%2B-dp-solution%3A-recursive-greater-memoization-greater-tabulation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,6 +980,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1138,7 +1150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1191,6 +1203,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1506,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3715,6 +3728,38 @@
       </c>
       <c r="J79" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
+        <v>647</v>
+      </c>
+      <c r="B80" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>152</v>
+      </c>
+      <c r="I80" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF6EA2D-25D1-456E-9F8A-2FBC1E09FCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="252">
   <si>
     <t>Question Number</t>
   </si>
@@ -290,10 +289,6 @@
   </si>
   <si>
     <t>OnePass, Brute,DP</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Study DP approach</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -867,12 +862,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -880,7 +875,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -888,7 +883,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -901,7 +896,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -967,7 +962,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1206,8 +1201,8 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1518,24 +1513,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.81640625" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.796875" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1584,13 +1579,13 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1616,7 +1611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1642,7 +1637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1671,7 +1666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -1697,7 +1692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1723,7 +1718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1749,7 +1744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1769,13 +1764,13 @@
         <v>34</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1795,13 +1790,13 @@
         <v>36</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1830,7 +1825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1856,7 +1851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>39</v>
       </c>
@@ -1885,7 +1880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1914,7 +1909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>49</v>
       </c>
@@ -1943,7 +1938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>53</v>
       </c>
@@ -1972,7 +1967,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>54</v>
       </c>
@@ -1998,7 +1993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>55</v>
       </c>
@@ -2027,7 +2022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>56</v>
       </c>
@@ -2053,7 +2048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>57</v>
       </c>
@@ -2079,7 +2074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>59</v>
       </c>
@@ -2111,7 +2106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>62</v>
       </c>
@@ -2143,7 +2138,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>70</v>
       </c>
@@ -2169,7 +2164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>73</v>
       </c>
@@ -2201,7 +2196,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>76</v>
       </c>
@@ -2224,7 +2219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>79</v>
       </c>
@@ -2256,7 +2251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>91</v>
       </c>
@@ -2279,7 +2274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>98</v>
       </c>
@@ -2311,7 +2306,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2337,7 +2332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100</v>
       </c>
@@ -2366,7 +2361,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>102</v>
       </c>
@@ -2398,7 +2393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>104</v>
       </c>
@@ -2424,7 +2419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>105</v>
       </c>
@@ -2447,7 +2442,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>121</v>
       </c>
@@ -2467,21 +2462,18 @@
         <v>87</v>
       </c>
       <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="I34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>124</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -2496,12 +2488,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>125</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
@@ -2510,7 +2502,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2519,12 +2511,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>128</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
         <v>20</v>
@@ -2539,204 +2531,204 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>133</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
         <v>94</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
         <v>95</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>96</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
         <v>97</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>139</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
         <v>100</v>
       </c>
-      <c r="C39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>101</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>104</v>
-      </c>
-      <c r="I39" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>141</v>
       </c>
       <c r="B40" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
         <v>105</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>106</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>107</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
         <v>108</v>
       </c>
-      <c r="F40" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>143</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" t="s">
         <v>107</v>
       </c>
-      <c r="E41" t="s">
-        <v>108</v>
-      </c>
       <c r="F41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
         <v>112</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>152</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
         <v>114</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>115</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>116</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>117</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
         <v>118</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
         <v>119</v>
       </c>
-      <c r="I42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2114</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
         <v>106</v>
-      </c>
-      <c r="D43" t="s">
-        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>24</v>
       </c>
       <c r="F43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
         <v>122</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2236</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
         <v>106</v>
-      </c>
-      <c r="D44" t="s">
-        <v>107</v>
       </c>
       <c r="E44" t="s">
         <v>71</v>
@@ -2745,12 +2737,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1023</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -2765,15 +2757,15 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>831</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -2788,15 +2780,15 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>153</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -2814,18 +2806,18 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>190</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
@@ -2834,7 +2826,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F48" t="s">
         <v>37</v>
@@ -2843,21 +2835,21 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I48" t="s">
         <v>29</v>
       </c>
       <c r="J48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>191</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -2866,10 +2858,10 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2878,12 +2870,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>198</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -2901,21 +2893,21 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I50" t="s">
         <v>29</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>200</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -2927,27 +2919,27 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
         <v>140</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>141</v>
-      </c>
       <c r="I51" t="s">
         <v>29</v>
       </c>
       <c r="J51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>206</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -2959,24 +2951,24 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" t="s">
         <v>145</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
-        <v>29</v>
-      </c>
-      <c r="J52" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>207</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -2985,27 +2977,27 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" t="s">
+        <v>139</v>
+      </c>
+      <c r="H53" t="s">
         <v>147</v>
       </c>
-      <c r="F53" t="s">
-        <v>140</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" t="s">
         <v>148</v>
       </c>
-      <c r="I53" t="s">
-        <v>29</v>
-      </c>
-      <c r="J53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>208</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -3014,24 +3006,24 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" t="s">
         <v>151</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" t="s">
         <v>152</v>
       </c>
-      <c r="I54" t="s">
-        <v>29</v>
-      </c>
-      <c r="J54" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>211</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -3040,98 +3032,98 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
+        <v>150</v>
+      </c>
+      <c r="H55" t="s">
         <v>151</v>
       </c>
-      <c r="H55" t="s">
-        <v>152</v>
-      </c>
       <c r="I55" t="s">
         <v>29</v>
       </c>
       <c r="J55" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>212</v>
       </c>
       <c r="B56" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" t="s">
         <v>157</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" t="s">
         <v>158</v>
       </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
         <v>151</v>
       </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" t="s">
         <v>159</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>152</v>
-      </c>
-      <c r="I56" t="s">
-        <v>29</v>
-      </c>
-      <c r="J56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>213</v>
       </c>
       <c r="B57" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" t="s">
         <v>162</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>163</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>164</v>
       </c>
-      <c r="E57" t="s">
-        <v>165</v>
-      </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I57" t="s">
         <v>29</v>
       </c>
       <c r="J57" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>217</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" t="s">
         <v>166</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" t="s">
         <v>167</v>
       </c>
-      <c r="E58" t="s">
-        <v>165</v>
-      </c>
-      <c r="F58" t="s">
-        <v>168</v>
-      </c>
       <c r="G58">
         <v>1</v>
       </c>
@@ -3139,147 +3131,147 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>226</v>
       </c>
       <c r="B59" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" t="s">
         <v>170</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>171</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>172</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>173</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
         <v>174</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" t="s">
         <v>175</v>
       </c>
-      <c r="I59" t="s">
-        <v>29</v>
-      </c>
-      <c r="J59" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>230</v>
       </c>
       <c r="B60" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
         <v>177</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>178</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>179</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>173</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
         <v>180</v>
       </c>
-      <c r="F60" t="s">
-        <v>174</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>181</v>
-      </c>
       <c r="I60" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>235</v>
       </c>
       <c r="B61" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
         <v>182</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>183</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" t="s">
+        <v>185</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" t="s">
         <v>184</v>
       </c>
-      <c r="E61" t="s">
-        <v>151</v>
-      </c>
-      <c r="F61" t="s">
-        <v>186</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>29</v>
-      </c>
-      <c r="J61" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>238</v>
       </c>
       <c r="B62" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" t="s">
         <v>187</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" t="s">
         <v>188</v>
       </c>
-      <c r="D62" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>189</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
         <v>190</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="I62" t="s">
-        <v>29</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>242</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" t="s">
         <v>194</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>195</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>196</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>197</v>
       </c>
-      <c r="F63" t="s">
-        <v>198</v>
-      </c>
       <c r="G63">
         <v>1</v>
       </c>
@@ -3287,15 +3279,15 @@
         <v>29</v>
       </c>
       <c r="J63" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>252</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
@@ -3310,21 +3302,21 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I64" t="s">
         <v>29</v>
       </c>
       <c r="J64" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>253</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -3336,18 +3328,18 @@
         <v>9</v>
       </c>
       <c r="H65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I65" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>261</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -3359,18 +3351,18 @@
         <v>71</v>
       </c>
       <c r="H66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>268</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
@@ -3385,197 +3377,197 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I67" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>269</v>
       </c>
       <c r="B68" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" t="s">
         <v>205</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>206</v>
       </c>
-      <c r="D68" t="s">
+      <c r="I68" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" t="s">
         <v>207</v>
       </c>
-      <c r="I68" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>271</v>
       </c>
       <c r="B69" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" t="s">
         <v>210</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>211</v>
       </c>
-      <c r="D69" t="s">
-        <v>212</v>
-      </c>
       <c r="I69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>295</v>
       </c>
       <c r="B70" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" t="s">
         <v>213</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>214</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>215</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
+        <v>217</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" t="s">
         <v>216</v>
       </c>
-      <c r="F70" t="s">
-        <v>218</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>29</v>
-      </c>
-      <c r="J70" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>297</v>
       </c>
       <c r="B71" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" t="s">
         <v>219</v>
       </c>
-      <c r="C71" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>220</v>
       </c>
-      <c r="E71" t="s">
-        <v>221</v>
-      </c>
       <c r="I71" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>300</v>
       </c>
       <c r="B72" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" t="s">
         <v>222</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>223</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>224</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>225</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>227</v>
+      </c>
+      <c r="I72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" t="s">
         <v>226</v>
       </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>228</v>
-      </c>
-      <c r="I72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J72" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>322</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I73" t="s">
         <v>29</v>
       </c>
       <c r="J73" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>323</v>
       </c>
       <c r="B74" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>234</v>
       </c>
-      <c r="C74" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" t="s">
-        <v>147</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" t="s">
         <v>235</v>
       </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>29</v>
-      </c>
-      <c r="J74" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>338</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C75" t="s">
         <v>20</v>
@@ -3584,7 +3576,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F75" t="s">
         <v>26</v>
@@ -3593,21 +3585,21 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I75" t="s">
         <v>29</v>
       </c>
       <c r="J75" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>347</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -3619,7 +3611,7 @@
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -3631,15 +3623,15 @@
         <v>29</v>
       </c>
       <c r="J76" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>371</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -3648,30 +3640,30 @@
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I77" t="s">
         <v>29</v>
       </c>
       <c r="J77" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>417</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -3680,30 +3672,30 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I78" t="s">
         <v>29</v>
       </c>
       <c r="J78" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>424</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -3715,27 +3707,27 @@
         <v>24</v>
       </c>
       <c r="F79" t="s">
+        <v>248</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>151</v>
+      </c>
+      <c r="I79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" t="s">
         <v>249</v>
       </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>152</v>
-      </c>
-      <c r="I79" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>647</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -3753,36 +3745,36 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I80" t="s">
         <v>29</v>
       </c>
       <c r="J80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J38" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B64" r:id="rId13" display="https://leetcode.com/problems/meeting-rooms" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B65" r:id="rId14" display="https://leetcode.com/problems/meeting-rooms-ii" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B66" r:id="rId15" display="https://leetcode.com/problems/graph-valid-tree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B68" r:id="rId16" display="https://www.cnblogs.com/grandyang/p/5250200.html" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B69" r:id="rId17" display="https://www.cnblogs.com/grandyang/p/5265628.html" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B73" r:id="rId18" display="https://www.cnblogs.com/grandyang/p/5138186.html" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/median-of-two-sorted-arrays"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/rotate-image"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://leetcode.com/problems/spiral-matrix"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://leetcode.com/problems/unique-paths/discuss/1581998/C%2B%2BPython-5-Simple-Solutions-w-Explanation-or-Optimization-from-Brute-Force-to-DP-to-Math"/>
+    <hyperlink ref="J30" r:id="rId8"/>
+    <hyperlink ref="B37" r:id="rId9" display="https://leetcode.com/problems/longest-consecutive-sequence"/>
+    <hyperlink ref="J38" r:id="rId10"/>
+    <hyperlink ref="J39" r:id="rId11"/>
+    <hyperlink ref="J50" r:id="rId12"/>
+    <hyperlink ref="B64" r:id="rId13" display="https://leetcode.com/problems/meeting-rooms"/>
+    <hyperlink ref="B65" r:id="rId14" display="https://leetcode.com/problems/meeting-rooms-ii"/>
+    <hyperlink ref="B66" r:id="rId15" display="https://leetcode.com/problems/graph-valid-tree"/>
+    <hyperlink ref="B68" r:id="rId16" display="https://www.cnblogs.com/grandyang/p/5250200.html"/>
+    <hyperlink ref="B69" r:id="rId17" display="https://www.cnblogs.com/grandyang/p/5265628.html"/>
+    <hyperlink ref="B73" r:id="rId18" display="https://www.cnblogs.com/grandyang/p/5138186.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="251">
   <si>
     <t>Question Number</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>comment</t>
-  </si>
-  <si>
-    <t>re-try best sol.</t>
   </si>
   <si>
     <t>Two Sum</t>
@@ -1118,7 +1115,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1128,6 +1125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1199,6 +1202,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1516,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1556,7 +1560,7 @@
         <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1564,10 +1568,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1576,13 +1580,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1590,7 +1594,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1599,16 +1603,16 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1631,18 +1635,15 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
+      <c r="B5" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1651,19 +1652,19 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1671,7 +1672,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1683,13 +1684,13 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1715,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1723,7 +1724,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -1741,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1749,25 +1750,25 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1775,10 +1776,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1787,13 +1788,13 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1813,16 +1814,16 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1830,7 +1831,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1848,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1856,7 +1857,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1868,16 +1869,16 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1885,7 +1886,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1897,16 +1898,16 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>42</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1914,7 +1915,7 @@
         <v>49</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1926,16 +1927,16 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1943,7 +1944,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -1955,16 +1956,16 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
         <v>47</v>
-      </c>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1972,7 +1973,7 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1984,13 +1985,13 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1998,7 +1999,7 @@
         <v>55</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -2010,16 +2011,16 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2027,7 +2028,7 @@
         <v>56</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -2039,13 +2040,13 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2053,7 +2054,7 @@
         <v>57</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -2068,10 +2069,10 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2079,7 +2080,7 @@
         <v>59</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -2088,22 +2089,22 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
         <v>56</v>
       </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="I21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2111,7 +2112,7 @@
         <v>62</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -2120,22 +2121,22 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
         <v>56</v>
       </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="I22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2143,25 +2144,25 @@
         <v>70</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2169,7 +2170,7 @@
         <v>73</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -2181,19 +2182,19 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>61</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
         <v>62</v>
-      </c>
-      <c r="I24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2201,7 +2202,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -2210,13 +2211,13 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2224,7 +2225,7 @@
         <v>79</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -2236,19 +2237,19 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" t="s">
         <v>67</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2256,7 +2257,7 @@
         <v>91</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -2265,13 +2266,13 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2279,7 +2280,7 @@
         <v>98</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -2288,22 +2289,22 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" t="s">
         <v>71</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
         <v>72</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
         <v>73</v>
-      </c>
-      <c r="I28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2311,25 +2312,25 @@
         <v>94</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" t="s">
         <v>75</v>
       </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" t="s">
-        <v>76</v>
-      </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2337,28 +2338,28 @@
         <v>100</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2366,7 +2367,7 @@
         <v>102</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -2375,22 +2376,22 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
         <v>80</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2398,25 +2399,25 @@
         <v>104</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2424,7 +2425,7 @@
         <v>105</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -2433,13 +2434,13 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2447,10 +2448,10 @@
         <v>121</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2459,13 +2460,13 @@
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2473,7 +2474,7 @@
         <v>124</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -2482,10 +2483,10 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
@@ -2493,22 +2494,22 @@
         <v>125</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
         <v>89</v>
       </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>90</v>
-      </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2516,10 +2517,10 @@
         <v>128</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2531,10 +2532,10 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2542,31 +2543,31 @@
         <v>133</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
         <v>93</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
         <v>94</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>95</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
         <v>96</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2574,31 +2575,31 @@
         <v>139</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
         <v>99</v>
       </c>
-      <c r="C39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>100</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>103</v>
-      </c>
-      <c r="I39" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2606,28 +2607,28 @@
         <v>141</v>
       </c>
       <c r="B40" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
         <v>104</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>105</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>106</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" t="s">
         <v>107</v>
-      </c>
-      <c r="F40" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2635,28 +2636,28 @@
         <v>143</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" t="s">
         <v>106</v>
       </c>
-      <c r="E41" t="s">
-        <v>107</v>
-      </c>
       <c r="F41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" t="s">
         <v>111</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2664,31 +2665,31 @@
         <v>152</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
         <v>113</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>114</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>115</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>116</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
         <v>117</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" t="s">
         <v>118</v>
-      </c>
-      <c r="I42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2696,25 +2697,25 @@
         <v>2114</v>
       </c>
       <c r="B43" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
         <v>120</v>
       </c>
-      <c r="C43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
         <v>121</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2722,16 +2723,16 @@
         <v>2236</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
         <v>105</v>
       </c>
-      <c r="D44" t="s">
-        <v>106</v>
-      </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2742,7 +2743,7 @@
         <v>1023</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -2751,13 +2752,13 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2765,7 +2766,7 @@
         <v>831</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -2774,13 +2775,13 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2788,7 +2789,7 @@
         <v>153</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -2806,10 +2807,10 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2817,31 +2818,31 @@
         <v>190</v>
       </c>
       <c r="B48" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
         <v>130</v>
       </c>
-      <c r="C48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" t="s">
         <v>131</v>
-      </c>
-      <c r="F48" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>133</v>
-      </c>
-      <c r="I48" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2849,25 +2850,25 @@
         <v>191</v>
       </c>
       <c r="B49" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" t="s">
         <v>134</v>
       </c>
-      <c r="C49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" t="s">
-        <v>135</v>
-      </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2875,7 +2876,7 @@
         <v>198</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -2887,19 +2888,19 @@
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2907,7 +2908,7 @@
         <v>200</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -2919,19 +2920,19 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
         <v>139</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>140</v>
-      </c>
       <c r="I51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2939,10 +2940,10 @@
         <v>206</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2951,16 +2952,16 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" t="s">
         <v>144</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
-        <v>29</v>
-      </c>
-      <c r="J52" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2968,7 +2969,7 @@
         <v>207</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -2977,19 +2978,19 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" t="s">
         <v>146</v>
       </c>
-      <c r="F53" t="s">
-        <v>139</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" t="s">
         <v>147</v>
-      </c>
-      <c r="I53" t="s">
-        <v>29</v>
-      </c>
-      <c r="J53" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2997,7 +2998,7 @@
         <v>208</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -3006,16 +3007,16 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
+        <v>149</v>
+      </c>
+      <c r="H54" t="s">
         <v>150</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" t="s">
         <v>151</v>
-      </c>
-      <c r="I54" t="s">
-        <v>29</v>
-      </c>
-      <c r="J54" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3023,7 +3024,7 @@
         <v>211</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -3032,16 +3033,16 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
+        <v>149</v>
+      </c>
+      <c r="H55" t="s">
         <v>150</v>
       </c>
-      <c r="H55" t="s">
-        <v>151</v>
-      </c>
       <c r="I55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3049,31 +3050,31 @@
         <v>212</v>
       </c>
       <c r="B56" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" t="s">
         <v>156</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" t="s">
         <v>157</v>
       </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
         <v>150</v>
       </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" t="s">
         <v>158</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>151</v>
-      </c>
-      <c r="I56" t="s">
-        <v>29</v>
-      </c>
-      <c r="J56" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3081,28 +3082,28 @@
         <v>213</v>
       </c>
       <c r="B57" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" t="s">
         <v>161</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>162</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>163</v>
       </c>
-      <c r="E57" t="s">
-        <v>164</v>
-      </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3110,25 +3111,25 @@
         <v>217</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" t="s">
         <v>165</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" t="s">
         <v>166</v>
       </c>
-      <c r="E58" t="s">
-        <v>164</v>
-      </c>
-      <c r="F58" t="s">
-        <v>167</v>
-      </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3136,31 +3137,31 @@
         <v>226</v>
       </c>
       <c r="B59" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" t="s">
         <v>169</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>170</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>171</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>172</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
         <v>173</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" t="s">
         <v>174</v>
-      </c>
-      <c r="I59" t="s">
-        <v>29</v>
-      </c>
-      <c r="J59" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3168,28 +3169,28 @@
         <v>230</v>
       </c>
       <c r="B60" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" t="s">
         <v>176</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>177</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>178</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>172</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
         <v>179</v>
       </c>
-      <c r="F60" t="s">
-        <v>173</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>180</v>
-      </c>
       <c r="I60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3197,28 +3198,28 @@
         <v>235</v>
       </c>
       <c r="B61" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" t="s">
         <v>181</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>182</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" t="s">
+        <v>184</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" t="s">
         <v>183</v>
-      </c>
-      <c r="E61" t="s">
-        <v>150</v>
-      </c>
-      <c r="F61" t="s">
-        <v>185</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>29</v>
-      </c>
-      <c r="J61" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3226,31 +3227,31 @@
         <v>238</v>
       </c>
       <c r="B62" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" t="s">
         <v>186</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" t="s">
         <v>187</v>
       </c>
-      <c r="D62" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>188</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
         <v>189</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="I62" t="s">
-        <v>29</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3258,28 +3259,28 @@
         <v>242</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" t="s">
         <v>193</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>194</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>195</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>196</v>
       </c>
-      <c r="F63" t="s">
-        <v>197</v>
-      </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3287,10 +3288,10 @@
         <v>252</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -3302,13 +3303,13 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3316,7 +3317,7 @@
         <v>253</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -3328,10 +3329,10 @@
         <v>9</v>
       </c>
       <c r="H65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3339,7 +3340,7 @@
         <v>261</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -3348,13 +3349,13 @@
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3362,10 +3363,10 @@
         <v>268</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -3377,10 +3378,10 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3388,19 +3389,19 @@
         <v>269</v>
       </c>
       <c r="B68" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" t="s">
         <v>204</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>205</v>
       </c>
-      <c r="D68" t="s">
+      <c r="I68" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" t="s">
         <v>206</v>
-      </c>
-      <c r="I68" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3408,16 +3409,16 @@
         <v>271</v>
       </c>
       <c r="B69" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" t="s">
         <v>209</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>210</v>
       </c>
-      <c r="D69" t="s">
-        <v>211</v>
-      </c>
       <c r="I69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3425,28 +3426,28 @@
         <v>295</v>
       </c>
       <c r="B70" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" t="s">
         <v>212</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>213</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>214</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
+        <v>216</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" t="s">
         <v>215</v>
-      </c>
-      <c r="F70" t="s">
-        <v>217</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>29</v>
-      </c>
-      <c r="J70" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3454,19 +3455,19 @@
         <v>297</v>
       </c>
       <c r="B71" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" t="s">
         <v>218</v>
       </c>
-      <c r="C71" t="s">
-        <v>205</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>219</v>
       </c>
-      <c r="E71" t="s">
-        <v>220</v>
-      </c>
       <c r="I71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3474,31 +3475,31 @@
         <v>300</v>
       </c>
       <c r="B72" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" t="s">
         <v>221</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>222</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>223</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>224</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>226</v>
+      </c>
+      <c r="I72" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" t="s">
         <v>225</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>227</v>
-      </c>
-      <c r="I72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J72" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3506,31 +3507,31 @@
         <v>322</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3538,28 +3539,28 @@
         <v>323</v>
       </c>
       <c r="B74" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" t="s">
+        <v>145</v>
+      </c>
+      <c r="F74" t="s">
         <v>233</v>
       </c>
-      <c r="C74" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" t="s">
-        <v>146</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" t="s">
         <v>234</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>29</v>
-      </c>
-      <c r="J74" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3567,31 +3568,31 @@
         <v>338</v>
       </c>
       <c r="B75" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>237</v>
+      </c>
+      <c r="I75" t="s">
+        <v>28</v>
+      </c>
+      <c r="J75" t="s">
         <v>236</v>
-      </c>
-      <c r="C75" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" t="s">
-        <v>131</v>
-      </c>
-      <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>238</v>
-      </c>
-      <c r="I75" t="s">
-        <v>29</v>
-      </c>
-      <c r="J75" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3599,7 +3600,7 @@
         <v>347</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -3611,19 +3612,19 @@
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3631,7 +3632,7 @@
         <v>371</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -3640,22 +3641,22 @@
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F77" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3663,7 +3664,7 @@
         <v>417</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -3672,22 +3673,22 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3695,7 +3696,7 @@
         <v>424</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -3704,22 +3705,22 @@
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F79" t="s">
+        <v>247</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>150</v>
+      </c>
+      <c r="I79" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" t="s">
         <v>248</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>151</v>
-      </c>
-      <c r="I79" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3727,7 +3728,7 @@
         <v>647</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -3736,22 +3737,22 @@
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1521,7 +1521,7 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1697,7 +1697,7 @@
       <c r="A7">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
@@ -1739,7 +1739,7 @@
         <v>16</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1521,7 +1521,7 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1765,7 +1765,7 @@
         <v>33</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
         <v>28</v>
@@ -1791,7 +1791,7 @@
         <v>35</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
         <v>28</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="251">
   <si>
     <t>Question Number</t>
   </si>
@@ -1521,7 +1521,7 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1817,10 +1817,7 @@
         <v>36</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
         <v>28</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1115,7 +1115,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1134,6 +1134,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1148,7 +1154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1203,6 +1209,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1521,7 +1528,7 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1827,7 +1834,7 @@
       <c r="A12">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="46" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="s">
@@ -1843,7 +1850,7 @@
         <v>15</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>28</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1154,7 +1154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1162,54 +1162,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1528,7 +1531,7 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1649,7 +1652,7 @@
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
@@ -1704,7 +1707,7 @@
       <c r="A7">
         <v>15</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
@@ -1834,7 +1837,7 @@
       <c r="A12">
         <v>33</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="s">
@@ -1860,7 +1863,7 @@
       <c r="A13">
         <v>39</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
@@ -1889,7 +1892,7 @@
       <c r="A14">
         <v>48</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C14" t="s">
@@ -1918,7 +1921,7 @@
       <c r="A15">
         <v>49</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
@@ -1947,7 +1950,7 @@
       <c r="A16">
         <v>53</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="s">
@@ -1976,7 +1979,7 @@
       <c r="A17">
         <v>54</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C17" t="s">
@@ -2002,7 +2005,7 @@
       <c r="A18">
         <v>55</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C18" t="s">
@@ -2031,7 +2034,7 @@
       <c r="A19">
         <v>56</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C19" t="s">
@@ -2057,7 +2060,7 @@
       <c r="A20">
         <v>57</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C20" t="s">
@@ -2083,7 +2086,7 @@
       <c r="A21">
         <v>59</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C21" t="s">
@@ -2107,7 +2110,7 @@
       <c r="I21" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2115,7 +2118,7 @@
       <c r="A22">
         <v>62</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C22" t="s">
@@ -2139,7 +2142,7 @@
       <c r="I22" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2147,7 +2150,7 @@
       <c r="A23">
         <v>70</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
@@ -2173,7 +2176,7 @@
       <c r="A24">
         <v>73</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C24" t="s">
@@ -2205,7 +2208,7 @@
       <c r="A25">
         <v>76</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C25" t="s">
@@ -2228,7 +2231,7 @@
       <c r="A26">
         <v>79</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C26" t="s">
@@ -2260,7 +2263,7 @@
       <c r="A27">
         <v>91</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C27" t="s">
@@ -2283,7 +2286,7 @@
       <c r="A28">
         <v>98</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C28" t="s">
@@ -2315,7 +2318,7 @@
       <c r="A29">
         <v>94</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C29" t="s">
@@ -2341,7 +2344,7 @@
       <c r="A30">
         <v>100</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="18" t="s">
         <v>76</v>
       </c>
       <c r="C30" t="s">
@@ -2362,7 +2365,7 @@
       <c r="I30" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2370,7 +2373,7 @@
       <c r="A31">
         <v>102</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C31" t="s">
@@ -2402,7 +2405,7 @@
       <c r="A32">
         <v>104</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="20" t="s">
         <v>82</v>
       </c>
       <c r="C32" t="s">
@@ -2428,7 +2431,7 @@
       <c r="A33">
         <v>105</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C33" t="s">
@@ -2451,7 +2454,7 @@
       <c r="A34">
         <v>121</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C34" t="s">
@@ -2477,7 +2480,7 @@
       <c r="A35">
         <v>124</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="21" t="s">
         <v>87</v>
       </c>
       <c r="C35" t="s">
@@ -2497,7 +2500,7 @@
       <c r="A36">
         <v>125</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C36" t="s">
@@ -2520,7 +2523,7 @@
       <c r="A37">
         <v>128</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C37" t="s">
@@ -2546,7 +2549,7 @@
       <c r="A38">
         <v>133</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="23" t="s">
         <v>92</v>
       </c>
       <c r="C38" t="s">
@@ -2570,7 +2573,7 @@
       <c r="I38" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="15" t="s">
+      <c r="J38" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2578,7 +2581,7 @@
       <c r="A39">
         <v>139</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="23" t="s">
         <v>98</v>
       </c>
       <c r="C39" t="s">
@@ -2602,7 +2605,7 @@
       <c r="I39" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="15" t="s">
+      <c r="J39" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2610,7 +2613,7 @@
       <c r="A40">
         <v>141</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="24" t="s">
         <v>103</v>
       </c>
       <c r="C40" t="s">
@@ -2639,7 +2642,7 @@
       <c r="A41">
         <v>143</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="25" t="s">
         <v>108</v>
       </c>
       <c r="C41" t="s">
@@ -2668,7 +2671,7 @@
       <c r="A42">
         <v>152</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C42" t="s">
@@ -2700,7 +2703,7 @@
       <c r="A43">
         <v>2114</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="26" t="s">
         <v>119</v>
       </c>
       <c r="C43" t="s">
@@ -2726,7 +2729,7 @@
       <c r="A44">
         <v>2236</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C44" t="s">
@@ -2746,7 +2749,7 @@
       <c r="A45">
         <v>1023</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="28" t="s">
         <v>123</v>
       </c>
       <c r="C45" t="s">
@@ -2769,7 +2772,7 @@
       <c r="A46">
         <v>831</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="28" t="s">
         <v>125</v>
       </c>
       <c r="C46" t="s">
@@ -2792,7 +2795,7 @@
       <c r="A47">
         <v>153</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C47" t="s">
@@ -2821,7 +2824,7 @@
       <c r="A48">
         <v>190</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="29" t="s">
         <v>129</v>
       </c>
       <c r="C48" t="s">
@@ -2853,7 +2856,7 @@
       <c r="A49">
         <v>191</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="29" t="s">
         <v>133</v>
       </c>
       <c r="C49" t="s">
@@ -2879,7 +2882,7 @@
       <c r="A50">
         <v>198</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C50" t="s">
@@ -2903,7 +2906,7 @@
       <c r="I50" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="15" t="s">
+      <c r="J50" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2911,7 +2914,7 @@
       <c r="A51">
         <v>200</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C51" t="s">
@@ -2943,7 +2946,7 @@
       <c r="A52">
         <v>206</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="31" t="s">
         <v>142</v>
       </c>
       <c r="C52" t="s">
@@ -2972,7 +2975,7 @@
       <c r="A53">
         <v>207</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C53" t="s">
@@ -3001,7 +3004,7 @@
       <c r="A54">
         <v>208</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="32" t="s">
         <v>152</v>
       </c>
       <c r="C54" t="s">
@@ -3027,7 +3030,7 @@
       <c r="A55">
         <v>211</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="33" t="s">
         <v>153</v>
       </c>
       <c r="C55" t="s">
@@ -3053,7 +3056,7 @@
       <c r="A56">
         <v>212</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="33" t="s">
         <v>155</v>
       </c>
       <c r="C56" t="s">
@@ -3085,7 +3088,7 @@
       <c r="A57">
         <v>213</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="34" t="s">
         <v>160</v>
       </c>
       <c r="C57" t="s">
@@ -3114,7 +3117,7 @@
       <c r="A58">
         <v>217</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C58" t="s">
@@ -3140,7 +3143,7 @@
       <c r="A59">
         <v>226</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="35" t="s">
         <v>168</v>
       </c>
       <c r="C59" t="s">
@@ -3172,7 +3175,7 @@
       <c r="A60">
         <v>230</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="36" t="s">
         <v>175</v>
       </c>
       <c r="C60" t="s">
@@ -3201,7 +3204,7 @@
       <c r="A61">
         <v>235</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="37" t="s">
         <v>180</v>
       </c>
       <c r="C61" t="s">
@@ -3230,7 +3233,7 @@
       <c r="A62">
         <v>238</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="38" t="s">
         <v>185</v>
       </c>
       <c r="C62" t="s">
@@ -3254,7 +3257,7 @@
       <c r="I62" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="J62" s="5" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3262,7 +3265,7 @@
       <c r="A63">
         <v>242</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C63" t="s">
@@ -3291,7 +3294,7 @@
       <c r="A64">
         <v>252</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="39" t="s">
         <v>197</v>
       </c>
       <c r="C64" t="s">
@@ -3320,7 +3323,7 @@
       <c r="A65">
         <v>253</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="39" t="s">
         <v>200</v>
       </c>
       <c r="C65" t="s">
@@ -3343,7 +3346,7 @@
       <c r="A66">
         <v>261</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="39" t="s">
         <v>201</v>
       </c>
       <c r="C66" t="s">
@@ -3366,7 +3369,7 @@
       <c r="A67">
         <v>268</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C67" t="s">
@@ -3392,7 +3395,7 @@
       <c r="A68">
         <v>269</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="40" t="s">
         <v>203</v>
       </c>
       <c r="C68" t="s">
@@ -3412,7 +3415,7 @@
       <c r="A69">
         <v>271</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="40" t="s">
         <v>208</v>
       </c>
       <c r="C69" t="s">
@@ -3429,7 +3432,7 @@
       <c r="A70">
         <v>295</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="41" t="s">
         <v>211</v>
       </c>
       <c r="C70" t="s">
@@ -3458,7 +3461,7 @@
       <c r="A71">
         <v>297</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="42" t="s">
         <v>217</v>
       </c>
       <c r="C71" t="s">
@@ -3478,7 +3481,7 @@
       <c r="A72">
         <v>300</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="43" t="s">
         <v>220</v>
       </c>
       <c r="C72" t="s">
@@ -3510,7 +3513,7 @@
       <c r="A73">
         <v>322</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="40" t="s">
         <v>231</v>
       </c>
       <c r="C73" t="s">
@@ -3542,7 +3545,7 @@
       <c r="A74">
         <v>323</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="44" t="s">
         <v>232</v>
       </c>
       <c r="C74" t="s">
@@ -3571,7 +3574,7 @@
       <c r="A75">
         <v>338</v>
       </c>
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="45" t="s">
         <v>235</v>
       </c>
       <c r="C75" t="s">
@@ -3603,7 +3606,7 @@
       <c r="A76">
         <v>347</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="46" t="s">
         <v>238</v>
       </c>
       <c r="C76" t="s">
@@ -3635,7 +3638,7 @@
       <c r="A77">
         <v>371</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="46" t="s">
         <v>242</v>
       </c>
       <c r="C77" t="s">
@@ -3667,7 +3670,7 @@
       <c r="A78">
         <v>417</v>
       </c>
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="47" t="s">
         <v>244</v>
       </c>
       <c r="C78" t="s">
@@ -3699,7 +3702,7 @@
       <c r="A79">
         <v>424</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="48" t="s">
         <v>246</v>
       </c>
       <c r="C79" t="s">
@@ -3731,7 +3734,7 @@
       <c r="A80">
         <v>647</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B80" s="49" t="s">
         <v>249</v>
       </c>
       <c r="C80" t="s">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="251">
   <si>
     <t>Question Number</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Combination Sum</t>
-  </si>
-  <si>
-    <t>Backtracking</t>
   </si>
   <si>
     <t>Rotate Image</t>
@@ -854,6 +851,10 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/palindromic-substrings/discuss/475745/C%2B%2B-dp-solution%3A-recursive-greater-memoization-greater-tabulation</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1531,7 +1532,7 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1863,7 +1864,7 @@
       <c r="A13">
         <v>39</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
@@ -1876,13 +1877,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>28</v>
@@ -1893,7 +1891,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1905,13 +1903,13 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>41</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
       </c>
       <c r="I14" t="s">
         <v>28</v>
@@ -1922,7 +1920,7 @@
         <v>49</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1940,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
@@ -1951,7 +1949,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -1963,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
         <v>26</v>
@@ -1972,7 +1970,7 @@
         <v>28</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1980,7 +1978,7 @@
         <v>54</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1992,7 +1990,7 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2006,7 +2004,7 @@
         <v>55</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -2018,13 +2016,13 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
         <v>28</v>
@@ -2035,7 +2033,7 @@
         <v>56</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -2047,7 +2045,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2061,7 +2059,7 @@
         <v>57</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -2079,7 +2077,7 @@
         <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2087,7 +2085,7 @@
         <v>59</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -2096,7 +2094,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -2105,13 +2103,13 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="I21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2119,7 +2117,7 @@
         <v>62</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -2128,7 +2126,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -2137,13 +2135,13 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2151,7 +2149,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -2160,7 +2158,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -2177,7 +2175,7 @@
         <v>73</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -2189,19 +2187,19 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>60</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
         <v>61</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2209,7 +2207,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -2232,7 +2230,7 @@
         <v>79</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -2244,7 +2242,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2256,7 +2254,7 @@
         <v>28</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2264,7 +2262,7 @@
         <v>91</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -2287,7 +2285,7 @@
         <v>98</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -2296,22 +2294,22 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
         <v>70</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
         <v>71</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
         <v>72</v>
-      </c>
-      <c r="I28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2319,7 +2317,7 @@
         <v>94</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -2328,16 +2326,16 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2345,7 +2343,7 @@
         <v>100</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
@@ -2354,7 +2352,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
         <v>35</v>
@@ -2366,7 +2364,7 @@
         <v>28</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2374,7 +2372,7 @@
         <v>102</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -2383,22 +2381,22 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
         <v>79</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2406,7 +2404,7 @@
         <v>104</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -2415,7 +2413,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -2432,7 +2430,7 @@
         <v>105</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -2441,13 +2439,13 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I33" t="s">
         <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2455,7 +2453,7 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
@@ -2467,7 +2465,7 @@
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2481,7 +2479,7 @@
         <v>124</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -2490,7 +2488,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I35" t="s">
         <v>28</v>
@@ -2501,7 +2499,7 @@
         <v>125</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
@@ -2510,7 +2508,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2524,7 +2522,7 @@
         <v>128</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
@@ -2539,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" t="s">
         <v>28</v>
@@ -2550,31 +2548,31 @@
         <v>133</v>
       </c>
       <c r="B38" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
         <v>92</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
         <v>93</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>94</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
         <v>95</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="I38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2582,31 +2580,31 @@
         <v>139</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
         <v>98</v>
       </c>
-      <c r="C39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>99</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>102</v>
-      </c>
-      <c r="I39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2614,28 +2612,28 @@
         <v>141</v>
       </c>
       <c r="B40" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
         <v>103</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>104</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>105</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" t="s">
         <v>106</v>
-      </c>
-      <c r="F40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2643,28 +2641,28 @@
         <v>143</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
         <v>105</v>
       </c>
-      <c r="E41" t="s">
-        <v>106</v>
-      </c>
       <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" t="s">
         <v>110</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2672,31 +2670,31 @@
         <v>152</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
         <v>112</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>113</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>114</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>115</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
         <v>116</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" t="s">
         <v>117</v>
-      </c>
-      <c r="I42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2704,25 +2702,25 @@
         <v>2114</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
         <v>104</v>
-      </c>
-      <c r="D43" t="s">
-        <v>105</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
       </c>
       <c r="F43" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
         <v>120</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2730,16 +2728,16 @@
         <v>2236</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
         <v>104</v>
       </c>
-      <c r="D44" t="s">
-        <v>105</v>
-      </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2750,7 +2748,7 @@
         <v>1023</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -2765,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2773,7 +2771,7 @@
         <v>831</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -2788,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2796,7 +2794,7 @@
         <v>153</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -2814,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
         <v>28</v>
@@ -2825,7 +2823,7 @@
         <v>190</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
         <v>19</v>
@@ -2834,7 +2832,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F48" t="s">
         <v>36</v>
@@ -2843,13 +2841,13 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I48" t="s">
         <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2857,7 +2855,7 @@
         <v>191</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
@@ -2866,10 +2864,10 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2883,7 +2881,7 @@
         <v>198</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -2901,13 +2899,13 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I50" t="s">
         <v>28</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2915,7 +2913,7 @@
         <v>200</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -2927,19 +2925,19 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
         <v>138</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>139</v>
-      </c>
       <c r="I51" t="s">
         <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2947,7 +2945,7 @@
         <v>206</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
@@ -2959,16 +2957,16 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" t="s">
         <v>143</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2976,7 +2974,7 @@
         <v>207</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -2985,19 +2983,19 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" t="s">
         <v>145</v>
       </c>
-      <c r="F53" t="s">
-        <v>138</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" t="s">
         <v>146</v>
-      </c>
-      <c r="I53" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -3005,7 +3003,7 @@
         <v>208</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -3014,16 +3012,16 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
+        <v>148</v>
+      </c>
+      <c r="H54" t="s">
         <v>149</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" t="s">
         <v>150</v>
-      </c>
-      <c r="I54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3031,7 +3029,7 @@
         <v>211</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -3040,16 +3038,16 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
+        <v>148</v>
+      </c>
+      <c r="H55" t="s">
         <v>149</v>
       </c>
-      <c r="H55" t="s">
-        <v>150</v>
-      </c>
       <c r="I55" t="s">
         <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3057,31 +3055,31 @@
         <v>212</v>
       </c>
       <c r="B56" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
         <v>155</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" t="s">
         <v>156</v>
       </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
         <v>149</v>
       </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" t="s">
         <v>157</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>150</v>
-      </c>
-      <c r="I56" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3089,28 +3087,28 @@
         <v>213</v>
       </c>
       <c r="B57" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" t="s">
         <v>160</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>161</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>162</v>
       </c>
-      <c r="E57" t="s">
-        <v>163</v>
-      </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I57" t="s">
         <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3118,19 +3116,19 @@
         <v>217</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" t="s">
         <v>164</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" t="s">
         <v>165</v>
-      </c>
-      <c r="E58" t="s">
-        <v>163</v>
-      </c>
-      <c r="F58" t="s">
-        <v>166</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3144,31 +3142,31 @@
         <v>226</v>
       </c>
       <c r="B59" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" t="s">
         <v>168</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>169</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>170</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>171</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
         <v>172</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" t="s">
         <v>173</v>
-      </c>
-      <c r="I59" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3176,25 +3174,25 @@
         <v>230</v>
       </c>
       <c r="B60" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s">
         <v>175</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>176</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>177</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
         <v>178</v>
-      </c>
-      <c r="F60" t="s">
-        <v>172</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>179</v>
       </c>
       <c r="I60" t="s">
         <v>28</v>
@@ -3205,28 +3203,28 @@
         <v>235</v>
       </c>
       <c r="B61" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" t="s">
         <v>180</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>181</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" t="s">
+        <v>183</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" t="s">
         <v>182</v>
-      </c>
-      <c r="E61" t="s">
-        <v>149</v>
-      </c>
-      <c r="F61" t="s">
-        <v>184</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>28</v>
-      </c>
-      <c r="J61" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3234,31 +3232,31 @@
         <v>238</v>
       </c>
       <c r="B62" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
         <v>185</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" t="s">
         <v>186</v>
       </c>
-      <c r="D62" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>187</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
         <v>188</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="I62" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3266,20 +3264,20 @@
         <v>242</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" t="s">
         <v>192</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>193</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>194</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>195</v>
       </c>
-      <c r="F63" t="s">
-        <v>196</v>
-      </c>
       <c r="G63">
         <v>1</v>
       </c>
@@ -3287,7 +3285,7 @@
         <v>28</v>
       </c>
       <c r="J63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3295,7 +3293,7 @@
         <v>252</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
@@ -3310,13 +3308,13 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I64" t="s">
         <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3324,7 +3322,7 @@
         <v>253</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -3336,7 +3334,7 @@
         <v>9</v>
       </c>
       <c r="H65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I65" t="s">
         <v>28</v>
@@ -3347,7 +3345,7 @@
         <v>261</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -3356,10 +3354,10 @@
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I66" t="s">
         <v>28</v>
@@ -3370,7 +3368,7 @@
         <v>268</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
@@ -3385,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I67" t="s">
         <v>28</v>
@@ -3396,19 +3394,19 @@
         <v>269</v>
       </c>
       <c r="B68" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s">
         <v>203</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>204</v>
       </c>
-      <c r="D68" t="s">
+      <c r="I68" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" t="s">
         <v>205</v>
-      </c>
-      <c r="I68" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3416,13 +3414,13 @@
         <v>271</v>
       </c>
       <c r="B69" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" t="s">
         <v>208</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>209</v>
-      </c>
-      <c r="D69" t="s">
-        <v>210</v>
       </c>
       <c r="I69" t="s">
         <v>28</v>
@@ -3433,28 +3431,28 @@
         <v>295</v>
       </c>
       <c r="B70" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" t="s">
         <v>211</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>212</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>213</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
+        <v>215</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" t="s">
         <v>214</v>
-      </c>
-      <c r="F70" t="s">
-        <v>216</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3462,16 +3460,16 @@
         <v>297</v>
       </c>
       <c r="B71" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" t="s">
         <v>217</v>
       </c>
-      <c r="C71" t="s">
-        <v>204</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>218</v>
-      </c>
-      <c r="E71" t="s">
-        <v>219</v>
       </c>
       <c r="I71" t="s">
         <v>28</v>
@@ -3482,31 +3480,31 @@
         <v>300</v>
       </c>
       <c r="B72" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" t="s">
         <v>220</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>221</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>222</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>223</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>225</v>
+      </c>
+      <c r="I72" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" t="s">
         <v>224</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>226</v>
-      </c>
-      <c r="I72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J72" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3514,31 +3512,31 @@
         <v>322</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I73" t="s">
         <v>28</v>
       </c>
       <c r="J73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3546,28 +3544,28 @@
         <v>323</v>
       </c>
       <c r="B74" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>232</v>
       </c>
-      <c r="C74" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74" t="s">
-        <v>105</v>
-      </c>
-      <c r="E74" t="s">
-        <v>145</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" t="s">
         <v>233</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3575,7 +3573,7 @@
         <v>338</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
@@ -3584,7 +3582,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F75" t="s">
         <v>25</v>
@@ -3593,13 +3591,13 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I75" t="s">
         <v>28</v>
       </c>
       <c r="J75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3607,7 +3605,7 @@
         <v>347</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -3619,19 +3617,19 @@
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I76" t="s">
         <v>28</v>
       </c>
       <c r="J76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3639,7 +3637,7 @@
         <v>371</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -3648,22 +3646,22 @@
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I77" t="s">
         <v>28</v>
       </c>
       <c r="J77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3671,7 +3669,7 @@
         <v>417</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -3680,22 +3678,22 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I78" t="s">
         <v>28</v>
       </c>
       <c r="J78" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3703,7 +3701,7 @@
         <v>424</v>
       </c>
       <c r="B79" s="48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -3715,19 +3713,19 @@
         <v>23</v>
       </c>
       <c r="F79" t="s">
+        <v>246</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>149</v>
+      </c>
+      <c r="I79" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" t="s">
         <v>247</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>150</v>
-      </c>
-      <c r="I79" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3735,7 +3733,7 @@
         <v>647</v>
       </c>
       <c r="B80" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -3753,13 +3751,13 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I80" t="s">
         <v>28</v>
       </c>
       <c r="J80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="250">
   <si>
     <t>Question Number</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Matrix</t>
-  </si>
-  <si>
-    <t>TC need to make sure</t>
   </si>
   <si>
     <t>Group Anagrams</t>
@@ -1531,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1877,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1890,7 +1887,7 @@
       <c r="A14">
         <v>48</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
@@ -1906,10 +1903,7 @@
         <v>40</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
         <v>28</v>
@@ -1920,7 +1914,7 @@
         <v>49</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1938,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
@@ -1949,7 +1943,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -1961,7 +1955,7 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
         <v>26</v>
@@ -1970,7 +1964,7 @@
         <v>28</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1978,7 +1972,7 @@
         <v>54</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -2004,7 +1998,7 @@
         <v>55</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -2022,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" t="s">
         <v>28</v>
@@ -2033,7 +2027,7 @@
         <v>56</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -2045,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2059,7 +2053,7 @@
         <v>57</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -2077,7 +2071,7 @@
         <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2085,7 +2079,7 @@
         <v>59</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -2094,7 +2088,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -2103,13 +2097,13 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="I21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2117,7 +2111,7 @@
         <v>62</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -2126,7 +2120,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -2135,13 +2129,13 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2149,7 +2143,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -2158,7 +2152,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -2175,7 +2169,7 @@
         <v>73</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -2187,19 +2181,19 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>59</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
         <v>60</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2207,7 +2201,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -2230,7 +2224,7 @@
         <v>79</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -2242,7 +2236,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2254,7 +2248,7 @@
         <v>28</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2262,7 +2256,7 @@
         <v>91</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -2285,7 +2279,7 @@
         <v>98</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -2294,22 +2288,22 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
         <v>69</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
         <v>70</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
         <v>71</v>
-      </c>
-      <c r="I28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2317,7 +2311,7 @@
         <v>94</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -2326,16 +2320,16 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2343,7 +2337,7 @@
         <v>100</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
@@ -2352,7 +2346,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
         <v>35</v>
@@ -2364,7 +2358,7 @@
         <v>28</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2372,7 +2366,7 @@
         <v>102</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -2381,22 +2375,22 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
         <v>78</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2404,7 +2398,7 @@
         <v>104</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -2413,7 +2407,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -2430,7 +2424,7 @@
         <v>105</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -2439,13 +2433,13 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I33" t="s">
         <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2453,7 +2447,7 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
@@ -2465,7 +2459,7 @@
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2479,7 +2473,7 @@
         <v>124</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -2488,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I35" t="s">
         <v>28</v>
@@ -2499,7 +2493,7 @@
         <v>125</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
@@ -2508,7 +2502,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2522,7 +2516,7 @@
         <v>128</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
@@ -2537,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s">
         <v>28</v>
@@ -2548,31 +2542,31 @@
         <v>133</v>
       </c>
       <c r="B38" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
         <v>91</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
         <v>92</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>93</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
         <v>94</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="I38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2580,31 +2574,31 @@
         <v>139</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
         <v>97</v>
       </c>
-      <c r="C39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>98</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>101</v>
-      </c>
-      <c r="I39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2612,28 +2606,28 @@
         <v>141</v>
       </c>
       <c r="B40" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
         <v>102</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>103</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>104</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" t="s">
         <v>105</v>
-      </c>
-      <c r="F40" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2641,28 +2635,28 @@
         <v>143</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" t="s">
         <v>104</v>
       </c>
-      <c r="E41" t="s">
-        <v>105</v>
-      </c>
       <c r="F41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" t="s">
         <v>109</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2670,31 +2664,31 @@
         <v>152</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
         <v>111</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>112</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>113</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>114</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
         <v>115</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" t="s">
         <v>116</v>
-      </c>
-      <c r="I42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2702,25 +2696,25 @@
         <v>2114</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
         <v>103</v>
-      </c>
-      <c r="D43" t="s">
-        <v>104</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
       </c>
       <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
         <v>119</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2728,16 +2722,16 @@
         <v>2236</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" t="s">
         <v>103</v>
       </c>
-      <c r="D44" t="s">
-        <v>104</v>
-      </c>
       <c r="E44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2748,7 +2742,7 @@
         <v>1023</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -2763,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2771,7 +2765,7 @@
         <v>831</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -2786,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2794,7 +2788,7 @@
         <v>153</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -2812,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I47" t="s">
         <v>28</v>
@@ -2823,7 +2817,7 @@
         <v>190</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
         <v>19</v>
@@ -2832,7 +2826,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F48" t="s">
         <v>36</v>
@@ -2841,13 +2835,13 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I48" t="s">
         <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2855,7 +2849,7 @@
         <v>191</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
@@ -2864,10 +2858,10 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2881,7 +2875,7 @@
         <v>198</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -2899,13 +2893,13 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I50" t="s">
         <v>28</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2913,7 +2907,7 @@
         <v>200</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -2925,19 +2919,19 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
         <v>137</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>138</v>
-      </c>
       <c r="I51" t="s">
         <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2945,7 +2939,7 @@
         <v>206</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
@@ -2957,16 +2951,16 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" t="s">
         <v>142</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2974,7 +2968,7 @@
         <v>207</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -2983,19 +2977,19 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" t="s">
         <v>144</v>
       </c>
-      <c r="F53" t="s">
-        <v>137</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" t="s">
         <v>145</v>
-      </c>
-      <c r="I53" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -3003,7 +2997,7 @@
         <v>208</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -3012,16 +3006,16 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" t="s">
         <v>148</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" t="s">
         <v>149</v>
-      </c>
-      <c r="I54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3029,7 +3023,7 @@
         <v>211</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -3038,16 +3032,16 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" t="s">
         <v>148</v>
       </c>
-      <c r="H55" t="s">
-        <v>149</v>
-      </c>
       <c r="I55" t="s">
         <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3055,31 +3049,31 @@
         <v>212</v>
       </c>
       <c r="B56" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
         <v>154</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" t="s">
         <v>155</v>
       </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
         <v>148</v>
       </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" t="s">
         <v>156</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>149</v>
-      </c>
-      <c r="I56" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3087,28 +3081,28 @@
         <v>213</v>
       </c>
       <c r="B57" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" t="s">
         <v>159</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>160</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>161</v>
       </c>
-      <c r="E57" t="s">
-        <v>162</v>
-      </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I57" t="s">
         <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3116,19 +3110,19 @@
         <v>217</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" t="s">
         <v>163</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" t="s">
         <v>164</v>
-      </c>
-      <c r="E58" t="s">
-        <v>162</v>
-      </c>
-      <c r="F58" t="s">
-        <v>165</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3142,31 +3136,31 @@
         <v>226</v>
       </c>
       <c r="B59" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" t="s">
         <v>167</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>168</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>169</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>170</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
         <v>171</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" t="s">
         <v>172</v>
-      </c>
-      <c r="I59" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3174,25 +3168,25 @@
         <v>230</v>
       </c>
       <c r="B60" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" t="s">
         <v>174</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>175</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>176</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
         <v>177</v>
-      </c>
-      <c r="F60" t="s">
-        <v>171</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>178</v>
       </c>
       <c r="I60" t="s">
         <v>28</v>
@@ -3203,28 +3197,28 @@
         <v>235</v>
       </c>
       <c r="B61" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
         <v>179</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>180</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>147</v>
+      </c>
+      <c r="F61" t="s">
+        <v>182</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" t="s">
         <v>181</v>
-      </c>
-      <c r="E61" t="s">
-        <v>148</v>
-      </c>
-      <c r="F61" t="s">
-        <v>183</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>28</v>
-      </c>
-      <c r="J61" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3232,31 +3226,31 @@
         <v>238</v>
       </c>
       <c r="B62" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" t="s">
         <v>184</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" t="s">
         <v>185</v>
       </c>
-      <c r="D62" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>186</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
         <v>187</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="I62" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3264,20 +3258,20 @@
         <v>242</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
         <v>191</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>192</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>193</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>194</v>
       </c>
-      <c r="F63" t="s">
-        <v>195</v>
-      </c>
       <c r="G63">
         <v>1</v>
       </c>
@@ -3285,7 +3279,7 @@
         <v>28</v>
       </c>
       <c r="J63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3293,7 +3287,7 @@
         <v>252</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
@@ -3308,13 +3302,13 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I64" t="s">
         <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3322,7 +3316,7 @@
         <v>253</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -3334,7 +3328,7 @@
         <v>9</v>
       </c>
       <c r="H65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I65" t="s">
         <v>28</v>
@@ -3345,7 +3339,7 @@
         <v>261</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -3354,10 +3348,10 @@
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I66" t="s">
         <v>28</v>
@@ -3368,7 +3362,7 @@
         <v>268</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
@@ -3383,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I67" t="s">
         <v>28</v>
@@ -3394,19 +3388,19 @@
         <v>269</v>
       </c>
       <c r="B68" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" t="s">
         <v>202</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>203</v>
       </c>
-      <c r="D68" t="s">
+      <c r="I68" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" t="s">
         <v>204</v>
-      </c>
-      <c r="I68" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3414,13 +3408,13 @@
         <v>271</v>
       </c>
       <c r="B69" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" t="s">
         <v>207</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>208</v>
-      </c>
-      <c r="D69" t="s">
-        <v>209</v>
       </c>
       <c r="I69" t="s">
         <v>28</v>
@@ -3431,28 +3425,28 @@
         <v>295</v>
       </c>
       <c r="B70" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" t="s">
         <v>210</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>211</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>212</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
+        <v>214</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" t="s">
         <v>213</v>
-      </c>
-      <c r="F70" t="s">
-        <v>215</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3460,16 +3454,16 @@
         <v>297</v>
       </c>
       <c r="B71" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" t="s">
         <v>216</v>
       </c>
-      <c r="C71" t="s">
-        <v>203</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>217</v>
-      </c>
-      <c r="E71" t="s">
-        <v>218</v>
       </c>
       <c r="I71" t="s">
         <v>28</v>
@@ -3480,31 +3474,31 @@
         <v>300</v>
       </c>
       <c r="B72" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" t="s">
         <v>219</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>220</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>221</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>222</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>224</v>
+      </c>
+      <c r="I72" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" t="s">
         <v>223</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>225</v>
-      </c>
-      <c r="I72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J72" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3512,31 +3506,31 @@
         <v>322</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I73" t="s">
         <v>28</v>
       </c>
       <c r="J73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3544,28 +3538,28 @@
         <v>323</v>
       </c>
       <c r="B74" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" t="s">
         <v>231</v>
       </c>
-      <c r="C74" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74" t="s">
-        <v>144</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" t="s">
         <v>232</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3573,7 +3567,7 @@
         <v>338</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
@@ -3582,7 +3576,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F75" t="s">
         <v>25</v>
@@ -3591,13 +3585,13 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I75" t="s">
         <v>28</v>
       </c>
       <c r="J75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3605,7 +3599,7 @@
         <v>347</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -3617,19 +3611,19 @@
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I76" t="s">
         <v>28</v>
       </c>
       <c r="J76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3637,7 +3631,7 @@
         <v>371</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -3646,22 +3640,22 @@
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I77" t="s">
         <v>28</v>
       </c>
       <c r="J77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3669,7 +3663,7 @@
         <v>417</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -3678,22 +3672,22 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I78" t="s">
         <v>28</v>
       </c>
       <c r="J78" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3701,7 +3695,7 @@
         <v>424</v>
       </c>
       <c r="B79" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -3713,19 +3707,19 @@
         <v>23</v>
       </c>
       <c r="F79" t="s">
+        <v>245</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>148</v>
+      </c>
+      <c r="I79" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" t="s">
         <v>246</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>149</v>
-      </c>
-      <c r="I79" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3733,7 +3727,7 @@
         <v>647</v>
       </c>
       <c r="B80" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -3751,13 +3745,13 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I80" t="s">
         <v>28</v>
       </c>
       <c r="J80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="250">
   <si>
     <t>Question Number</t>
   </si>
@@ -152,16 +152,10 @@
     <t>Group Anagrams</t>
   </si>
   <si>
-    <t>re-do best sol.</t>
-  </si>
-  <si>
     <t>Maximum Subarray</t>
   </si>
   <si>
     <t>DP,Divide and Conquer</t>
-  </si>
-  <si>
-    <t>https://ithelp.ithome.com.tw/users/20119871/ironman/2210?page=1</t>
   </si>
   <si>
     <t>Spiral Matrix</t>
@@ -280,7 +274,7 @@
   </si>
   <si>
     <t>OnePass, Brute,DP</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree Maximum Path Sum</t>
@@ -290,71 +284,71 @@
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Longest Consecutive Sequence</t>
   </si>
   <si>
     <t>Study how is solution O(n)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Clone Graph</t>
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Graph</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>HashMap,DFS,BFS</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>need to understand</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/clone-graph/discuss/1793212/C%2B%2Bor-Detailed-Explanation-w-DFS-and-BFS-or-Commented-code-with-extra-Test-Case</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Word Break</t>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>HashMap,DP</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/word-break/discuss/43814/C%2B%2B-Dynamic-Programming-simple-and-fast-solution-(4ms)-with-optimization</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>need to understand</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Linked List Cycle</t>
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LinkedList</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/linked-list-cycle/discuss/1829489/C%2B%2B-oror-Easy-To-Understand-oror-2-Pointer-oror-Fast-and-Slow</t>
@@ -364,7 +358,7 @@
   </si>
   <si>
     <t>TwoPoint(Floyd’s Cycle-Finding Algorithm)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>TwoPoint</t>
@@ -377,23 +371,23 @@
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>DP</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>need to understand</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-product-subarray/discuss/183483/JavaC%2B%2BPython-it-can-be-more-simple</t>
@@ -487,22 +481,22 @@
   </si>
   <si>
     <t>Course Schedule</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Tree</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Need to understand</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/implement-trie-prefix-tree/discuss/58945/Share-my-C%2B%2B-solutioneasy-to-understand</t>
   </si>
   <si>
     <t>Implement Trie (Prefix Tree)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Design Add and Search Words Data Structure</t>
@@ -515,11 +509,11 @@
   </si>
   <si>
     <t>Hard</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Backtracking, DFS</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/word-search-ii/discuss/878708/C%2B%2BPython-Backtracking-with-Trie-Clean-and-Concise</t>
@@ -532,54 +526,54 @@
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Hashmap</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Contains Duplicate</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Invert Binary Tree</t>
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Tree</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Queue</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Can to understad BFS,DFS</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/invert-binary-tree/discuss/62891/C%2B%2B-no-recursion-clean-BFS-solution</t>
@@ -589,61 +583,61 @@
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Tree</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Need to understant others answer</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Lowest Common Ancestor of a Binary Search Tree</t>
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/discuss/64980/C%2B%2B-Recursive-and-Iterative</t>
   </si>
   <si>
     <t>Iterative, Recursion</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Product of Array Except Self</t>
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Prefix and Suffix</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Need to understand Prefix </t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/product-of-array-except-self/discuss/65627/O(n)-time-and-O(1)-space-C%2B%2B-solution-with-explanation
 https://leetcode.com/problems/product-of-array-except-self/discuss/1610450/Attention-No-One-Going-to-Explain-like-this</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-anagram/discuss/66519/2-C%2B%2B-Solutions-with-Explanations</t>
@@ -653,19 +647,19 @@
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Hashmap</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Meeting Rooms</t>
@@ -684,110 +678,110 @@
   </si>
   <si>
     <t>Missing Number</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Alien Dictionary 另类字典</t>
   </si>
   <si>
     <t>Hard</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>https://www.cnblogs.com/grandyang/p/5250200.html</t>
   </si>
   <si>
     <t>Understand bit manipulation</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Encode and Decode Strings 加码解码字符串</t>
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Find Median from Data Stream</t>
   </si>
   <si>
     <t>Hard</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Design</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/find-median-from-data-stream/discuss/1330646/C%2B%2BJavaPython-MinHeap-MaxHeap-Solution-Picture-explain-Clean-and-Concise</t>
   </si>
   <si>
     <t>Priority_queue</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Serialize and Deserialize Binary Tree</t>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Tree</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Longest Increasing Subsequence</t>
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>DP, Binary Tree</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-increasing-subsequence/discuss/1326308/C%2B%2BPython-DP-Binary-Search-BIT-Solutions-Picture-explain-O(NlogN)</t>
   </si>
   <si>
     <t>Need to understand other</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>https://www.cnblogs.com/grandyang/p/5138186.html</t>
   </si>
   <si>
     <t>Need to understand</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>DP</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Coin Change 硬币找零</t>
@@ -851,14 +845,22 @@
   </si>
   <si>
     <t>Backtracking</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ithelp.ithome.com.tw/users/20119871/ironman/2210?page=1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>must learn</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,12 +896,6 @@
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1152,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1177,7 +1173,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1195,22 +1191,21 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1528,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1874,7 +1869,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1913,7 +1908,7 @@
       <c r="A15">
         <v>49</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="s">
@@ -1929,10 +1924,7 @@
         <v>20</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
@@ -1942,8 +1934,8 @@
       <c r="A16">
         <v>53</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>43</v>
+      <c r="B16" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -1955,16 +1947,19 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="I16" t="s">
         <v>28</v>
       </c>
-      <c r="J16" t="s">
-        <v>45</v>
+      <c r="J16" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1972,7 +1967,7 @@
         <v>54</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1997,8 +1992,8 @@
       <c r="A18">
         <v>55</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>47</v>
+      <c r="B18" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -2016,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I18" t="s">
         <v>28</v>
@@ -2026,8 +2021,8 @@
       <c r="A19">
         <v>56</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>48</v>
+      <c r="B19" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -2039,7 +2034,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2052,8 +2047,8 @@
       <c r="A20">
         <v>57</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>50</v>
+      <c r="B20" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -2071,15 +2066,15 @@
         <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>59</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>52</v>
+      <c r="B21" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -2088,7 +2083,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -2097,21 +2092,21 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s">
         <v>28</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>62</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>52</v>
+      <c r="B22" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -2120,7 +2115,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -2129,21 +2124,21 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s">
         <v>28</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>70</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>56</v>
+      <c r="B23" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -2152,7 +2147,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -2168,8 +2163,8 @@
       <c r="A24">
         <v>73</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>57</v>
+      <c r="B24" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -2181,27 +2176,27 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
         <v>58</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>76</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>62</v>
+      <c r="B25" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -2223,8 +2218,8 @@
       <c r="A26">
         <v>79</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>63</v>
+      <c r="B26" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -2236,7 +2231,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2248,15 +2243,15 @@
         <v>28</v>
       </c>
       <c r="J26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>91</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>66</v>
+      <c r="B27" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -2278,8 +2273,8 @@
       <c r="A28">
         <v>98</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>67</v>
+      <c r="B28" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -2288,30 +2283,30 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
         <v>68</v>
       </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
         <v>69</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>94</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>72</v>
+      <c r="B29" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -2320,24 +2315,24 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
         <v>68</v>
-      </c>
-      <c r="F29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>74</v>
+      <c r="B30" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
@@ -2346,7 +2341,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
         <v>35</v>
@@ -2358,15 +2353,15 @@
         <v>28</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>102</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>76</v>
+      <c r="B31" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -2375,30 +2370,30 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
         <v>77</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>79</v>
-      </c>
       <c r="I31" t="s">
         <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>104</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>80</v>
+      <c r="B32" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -2407,7 +2402,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -2423,8 +2418,8 @@
       <c r="A33">
         <v>105</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>81</v>
+      <c r="B33" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -2433,21 +2428,21 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I33" t="s">
         <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>121</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>83</v>
+      <c r="B34" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
@@ -2459,7 +2454,7 @@
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2472,8 +2467,8 @@
       <c r="A35">
         <v>124</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>85</v>
+      <c r="B35" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -2482,7 +2477,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I35" t="s">
         <v>28</v>
@@ -2492,8 +2487,8 @@
       <c r="A36">
         <v>125</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>86</v>
+      <c r="B36" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
@@ -2502,7 +2497,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2516,7 +2511,7 @@
         <v>128</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
@@ -2531,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s">
         <v>28</v>
@@ -2541,114 +2536,114 @@
       <c r="A38">
         <v>133</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
         <v>90</v>
       </c>
-      <c r="C38" t="s">
+      <c r="F38" t="s">
         <v>91</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
         <v>92</v>
       </c>
-      <c r="F38" t="s">
+      <c r="I38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>139</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" t="s">
         <v>96</v>
       </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="F39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>100</v>
-      </c>
-      <c r="I39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>141</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
         <v>101</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>102</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" t="s">
         <v>103</v>
-      </c>
-      <c r="E40" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>143</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" t="s">
         <v>106</v>
       </c>
-      <c r="C41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" t="s">
-        <v>108</v>
-      </c>
       <c r="G41">
         <v>1</v>
       </c>
@@ -2656,7 +2651,7 @@
         <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2664,74 +2659,74 @@
         <v>152</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
         <v>110</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>111</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>112</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
         <v>113</v>
       </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" t="s">
         <v>114</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2114</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>117</v>
+      <c r="B43" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2236</v>
       </c>
-      <c r="B44" s="27" t="s">
-        <v>120</v>
+      <c r="B44" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2741,8 +2736,8 @@
       <c r="A45">
         <v>1023</v>
       </c>
-      <c r="B45" s="28" t="s">
-        <v>121</v>
+      <c r="B45" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -2757,15 +2752,15 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>831</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>123</v>
+      <c r="B46" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -2780,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2788,7 +2783,7 @@
         <v>153</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -2806,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I47" t="s">
         <v>28</v>
@@ -2816,8 +2811,8 @@
       <c r="A48">
         <v>190</v>
       </c>
-      <c r="B48" s="29" t="s">
-        <v>127</v>
+      <c r="B48" s="28" t="s">
+        <v>125</v>
       </c>
       <c r="C48" t="s">
         <v>19</v>
@@ -2826,7 +2821,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F48" t="s">
         <v>36</v>
@@ -2835,21 +2830,21 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I48" t="s">
         <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>191</v>
       </c>
-      <c r="B49" s="29" t="s">
-        <v>131</v>
+      <c r="B49" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
@@ -2858,10 +2853,10 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2874,8 +2869,8 @@
       <c r="A50">
         <v>198</v>
       </c>
-      <c r="B50" s="30" t="s">
-        <v>133</v>
+      <c r="B50" s="29" t="s">
+        <v>131</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -2893,21 +2888,21 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I50" t="s">
         <v>28</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>200</v>
       </c>
-      <c r="B51" s="31" t="s">
-        <v>135</v>
+      <c r="B51" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -2919,27 +2914,27 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" t="s">
         <v>137</v>
-      </c>
-      <c r="I51" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>206</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>140</v>
+      <c r="B52" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
@@ -2951,7 +2946,7 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2960,7 +2955,7 @@
         <v>28</v>
       </c>
       <c r="J52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2968,7 +2963,7 @@
         <v>207</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -2977,27 +2972,27 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" t="s">
+        <v>142</v>
+      </c>
+      <c r="I53" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" t="s">
         <v>143</v>
-      </c>
-      <c r="F53" t="s">
-        <v>136</v>
-      </c>
-      <c r="H53" t="s">
-        <v>144</v>
-      </c>
-      <c r="I53" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>208</v>
       </c>
-      <c r="B54" s="32" t="s">
-        <v>150</v>
+      <c r="B54" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -3006,24 +3001,24 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" t="s">
+        <v>146</v>
+      </c>
+      <c r="I54" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" t="s">
         <v>147</v>
-      </c>
-      <c r="H54" t="s">
-        <v>148</v>
-      </c>
-      <c r="I54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>211</v>
       </c>
-      <c r="B55" s="33" t="s">
-        <v>151</v>
+      <c r="B55" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -3032,77 +3027,77 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I55" t="s">
         <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>212</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" t="s">
         <v>153</v>
       </c>
-      <c r="C56" t="s">
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" t="s">
         <v>154</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
-        <v>147</v>
-      </c>
-      <c r="F56" t="s">
-        <v>155</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>148</v>
-      </c>
-      <c r="I56" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>213</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" t="s">
         <v>158</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>159</v>
       </c>
-      <c r="D57" t="s">
-        <v>160</v>
-      </c>
-      <c r="E57" t="s">
-        <v>161</v>
-      </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I57" t="s">
         <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3110,19 +3105,19 @@
         <v>217</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" t="s">
         <v>162</v>
-      </c>
-      <c r="D58" t="s">
-        <v>163</v>
-      </c>
-      <c r="E58" t="s">
-        <v>161</v>
-      </c>
-      <c r="F58" t="s">
-        <v>164</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3135,58 +3130,58 @@
       <c r="A59">
         <v>226</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" t="s">
         <v>166</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>167</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>168</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
         <v>169</v>
       </c>
-      <c r="F59" t="s">
+      <c r="I59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" t="s">
         <v>170</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>171</v>
-      </c>
-      <c r="I59" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>230</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" t="s">
         <v>173</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>174</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
+        <v>168</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
         <v>175</v>
-      </c>
-      <c r="E60" t="s">
-        <v>176</v>
-      </c>
-      <c r="F60" t="s">
-        <v>170</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>177</v>
       </c>
       <c r="I60" t="s">
         <v>28</v>
@@ -3196,61 +3191,61 @@
       <c r="A61">
         <v>235</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" t="s">
         <v>178</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" t="s">
         <v>179</v>
-      </c>
-      <c r="D61" t="s">
-        <v>180</v>
-      </c>
-      <c r="E61" t="s">
-        <v>147</v>
-      </c>
-      <c r="F61" t="s">
-        <v>182</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>28</v>
-      </c>
-      <c r="J61" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>238</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" t="s">
         <v>183</v>
       </c>
-      <c r="C62" t="s">
+      <c r="F62" t="s">
         <v>184</v>
       </c>
-      <c r="D62" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
         <v>185</v>
       </c>
-      <c r="F62" t="s">
+      <c r="I62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>187</v>
-      </c>
-      <c r="I62" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3258,20 +3253,20 @@
         <v>242</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" t="s">
         <v>190</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>191</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>192</v>
       </c>
-      <c r="E63" t="s">
-        <v>193</v>
-      </c>
-      <c r="F63" t="s">
-        <v>194</v>
-      </c>
       <c r="G63">
         <v>1</v>
       </c>
@@ -3279,15 +3274,15 @@
         <v>28</v>
       </c>
       <c r="J63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>252</v>
       </c>
-      <c r="B64" s="39" t="s">
-        <v>195</v>
+      <c r="B64" s="38" t="s">
+        <v>193</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
@@ -3302,21 +3297,21 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I64" t="s">
         <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>253</v>
       </c>
-      <c r="B65" s="39" t="s">
-        <v>198</v>
+      <c r="B65" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -3328,7 +3323,7 @@
         <v>9</v>
       </c>
       <c r="H65" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I65" t="s">
         <v>28</v>
@@ -3338,8 +3333,8 @@
       <c r="A66">
         <v>261</v>
       </c>
-      <c r="B66" s="39" t="s">
-        <v>199</v>
+      <c r="B66" s="38" t="s">
+        <v>197</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -3348,10 +3343,10 @@
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I66" t="s">
         <v>28</v>
@@ -3362,7 +3357,7 @@
         <v>268</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
@@ -3377,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I67" t="s">
         <v>28</v>
@@ -3387,34 +3382,34 @@
       <c r="A68">
         <v>269</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" t="s">
         <v>201</v>
       </c>
-      <c r="C68" t="s">
+      <c r="I68" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" t="s">
         <v>202</v>
-      </c>
-      <c r="D68" t="s">
-        <v>203</v>
-      </c>
-      <c r="I68" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>271</v>
       </c>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" t="s">
         <v>206</v>
-      </c>
-      <c r="C69" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" t="s">
-        <v>208</v>
       </c>
       <c r="I69" t="s">
         <v>28</v>
@@ -3424,46 +3419,46 @@
       <c r="A70">
         <v>295</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" t="s">
         <v>209</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
         <v>210</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
+        <v>212</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" t="s">
         <v>211</v>
-      </c>
-      <c r="E70" t="s">
-        <v>212</v>
-      </c>
-      <c r="F70" t="s">
-        <v>214</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>297</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71" t="s">
+        <v>214</v>
+      </c>
+      <c r="E71" t="s">
         <v>215</v>
-      </c>
-      <c r="C71" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E71" t="s">
-        <v>217</v>
       </c>
       <c r="I71" t="s">
         <v>28</v>
@@ -3473,101 +3468,101 @@
       <c r="A72">
         <v>300</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72" t="s">
         <v>218</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E72" t="s">
         <v>219</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
         <v>220</v>
       </c>
-      <c r="E72" t="s">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>222</v>
+      </c>
+      <c r="I72" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" t="s">
         <v>221</v>
-      </c>
-      <c r="F72" t="s">
-        <v>222</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>224</v>
-      </c>
-      <c r="I72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J72" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>322</v>
       </c>
-      <c r="B73" s="40" t="s">
-        <v>229</v>
+      <c r="B73" s="39" t="s">
+        <v>227</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E73" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F73" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I73" t="s">
         <v>28</v>
       </c>
       <c r="J73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>323</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74" t="s">
+        <v>229</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" t="s">
         <v>230</v>
-      </c>
-      <c r="C74" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" t="s">
-        <v>103</v>
-      </c>
-      <c r="E74" t="s">
-        <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>231</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>338</v>
       </c>
-      <c r="B75" s="45" t="s">
-        <v>233</v>
+      <c r="B75" s="44" t="s">
+        <v>231</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
@@ -3576,7 +3571,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F75" t="s">
         <v>25</v>
@@ -3585,21 +3580,21 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I75" t="s">
         <v>28</v>
       </c>
       <c r="J75" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>347</v>
       </c>
-      <c r="B76" s="46" t="s">
-        <v>236</v>
+      <c r="B76" s="45" t="s">
+        <v>234</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -3611,27 +3606,27 @@
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I76" t="s">
         <v>28</v>
       </c>
       <c r="J76" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>371</v>
       </c>
-      <c r="B77" s="46" t="s">
-        <v>240</v>
+      <c r="B77" s="45" t="s">
+        <v>238</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -3640,30 +3635,30 @@
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F77" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I77" t="s">
         <v>28</v>
       </c>
       <c r="J77" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>417</v>
       </c>
-      <c r="B78" s="47" t="s">
-        <v>242</v>
+      <c r="B78" s="46" t="s">
+        <v>240</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -3672,30 +3667,30 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I78" t="s">
         <v>28</v>
       </c>
       <c r="J78" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>424</v>
       </c>
-      <c r="B79" s="48" t="s">
-        <v>244</v>
+      <c r="B79" s="47" t="s">
+        <v>242</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -3707,27 +3702,27 @@
         <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I79" t="s">
         <v>28</v>
       </c>
       <c r="J79" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>647</v>
       </c>
-      <c r="B80" s="49" t="s">
-        <v>247</v>
+      <c r="B80" s="48" t="s">
+        <v>245</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -3745,17 +3740,17 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I80" t="s">
         <v>28</v>
       </c>
       <c r="J80" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
     <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
@@ -3775,8 +3770,9 @@
     <hyperlink ref="B68" r:id="rId16" display="https://www.cnblogs.com/grandyang/p/5250200.html"/>
     <hyperlink ref="B69" r:id="rId17" display="https://www.cnblogs.com/grandyang/p/5265628.html"/>
     <hyperlink ref="B73" r:id="rId18" display="https://www.cnblogs.com/grandyang/p/5138186.html"/>
+    <hyperlink ref="J16" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="252">
   <si>
     <t>Question Number</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Insert Interval</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/insert-interval/discuss/844523/C%2B%2B-Super-Clean-Clear-Short-and-Simple-Solution-O(n)-time-O(1)-space</t>
   </si>
   <si>
     <t>Unique Paths</t>
@@ -204,9 +201,6 @@
     <t>https://leetcode.com/problems/set-matrix-zeroes/discuss/1400849/Set-Matrix-Zeroes-oror-2-Approach-w-Explanation-oror-C%2B%2B-or-Python-or-Java</t>
   </si>
   <si>
-    <t>re-do understand</t>
-  </si>
-  <si>
     <t>Minimum Window Substring</t>
   </si>
   <si>
@@ -274,7 +268,7 @@
   </si>
   <si>
     <t>OnePass, Brute,DP</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree Maximum Path Sum</t>
@@ -284,71 +278,71 @@
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Longest Consecutive Sequence</t>
   </si>
   <si>
     <t>Study how is solution O(n)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Clone Graph</t>
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Graph</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HashMap,DFS,BFS</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>need to understand</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/clone-graph/discuss/1793212/C%2B%2Bor-Detailed-Explanation-w-DFS-and-BFS-or-Commented-code-with-extra-Test-Case</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Word Break</t>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HashMap,DP</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/word-break/discuss/43814/C%2B%2B-Dynamic-Programming-simple-and-fast-solution-(4ms)-with-optimization</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>need to understand</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Linked List Cycle</t>
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LinkedList</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/linked-list-cycle/discuss/1829489/C%2B%2B-oror-Easy-To-Understand-oror-2-Pointer-oror-Fast-and-Slow</t>
@@ -358,7 +352,7 @@
   </si>
   <si>
     <t>TwoPoint(Floyd’s Cycle-Finding Algorithm)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>TwoPoint</t>
@@ -371,23 +365,23 @@
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>DP</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>need to understand</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-product-subarray/discuss/183483/JavaC%2B%2BPython-it-can-be-more-simple</t>
@@ -481,22 +475,22 @@
   </si>
   <si>
     <t>Course Schedule</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Tree</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Need to understand</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/implement-trie-prefix-tree/discuss/58945/Share-my-C%2B%2B-solutioneasy-to-understand</t>
   </si>
   <si>
     <t>Implement Trie (Prefix Tree)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Design Add and Search Words Data Structure</t>
@@ -509,11 +503,11 @@
   </si>
   <si>
     <t>Hard</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Backtracking, DFS</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/word-search-ii/discuss/878708/C%2B%2BPython-Backtracking-with-Trie-Clean-and-Concise</t>
@@ -526,54 +520,54 @@
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Hashmap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Contains Duplicate</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Invert Binary Tree</t>
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Tree</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Queue</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Can to understad BFS,DFS</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/invert-binary-tree/discuss/62891/C%2B%2B-no-recursion-clean-BFS-solution</t>
@@ -583,61 +577,61 @@
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Tree</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Need to understant others answer</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Lowest Common Ancestor of a Binary Search Tree</t>
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/discuss/64980/C%2B%2B-Recursive-and-Iterative</t>
   </si>
   <si>
     <t>Iterative, Recursion</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Product of Array Except Self</t>
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Prefix and Suffix</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Need to understand Prefix </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/product-of-array-except-self/discuss/65627/O(n)-time-and-O(1)-space-C%2B%2B-solution-with-explanation
 https://leetcode.com/problems/product-of-array-except-self/discuss/1610450/Attention-No-One-Going-to-Explain-like-this</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-anagram/discuss/66519/2-C%2B%2B-Solutions-with-Explanations</t>
@@ -647,19 +641,19 @@
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Hashmap</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Meeting Rooms</t>
@@ -678,110 +672,110 @@
   </si>
   <si>
     <t>Missing Number</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Alien Dictionary 另类字典</t>
   </si>
   <si>
     <t>Hard</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://www.cnblogs.com/grandyang/p/5250200.html</t>
   </si>
   <si>
     <t>Understand bit manipulation</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Encode and Decode Strings 加码解码字符串</t>
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Find Median from Data Stream</t>
   </si>
   <si>
     <t>Hard</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Design</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/find-median-from-data-stream/discuss/1330646/C%2B%2BJavaPython-MinHeap-MaxHeap-Solution-Picture-explain-Clean-and-Concise</t>
   </si>
   <si>
     <t>Priority_queue</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Serialize and Deserialize Binary Tree</t>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Tree</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Longest Increasing Subsequence</t>
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>DP, Binary Tree</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-increasing-subsequence/discuss/1326308/C%2B%2BPython-DP-Binary-Search-BIT-Solutions-Picture-explain-O(NlogN)</t>
   </si>
   <si>
     <t>Need to understand other</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://www.cnblogs.com/grandyang/p/5138186.html</t>
   </si>
   <si>
     <t>Need to understand</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>DP</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Coin Change 硬币找零</t>
@@ -845,22 +839,38 @@
   </si>
   <si>
     <t>Backtracking</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://ithelp.ithome.com.tw/users/20119871/ironman/2210?page=1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>must learn</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greedy, DP</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-interval/discuss/844523/C%2B%2B-Super-Clean-Clear-Short-and-Simple-Solution-O(n)-time-O(1)-space</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiral Matrix II</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matrix</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,18 +906,6 @@
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1148,7 +1146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1171,8 +1169,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1189,23 +1187,21 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1521,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1869,7 +1865,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1953,13 +1949,13 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I16" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1992,7 +1988,7 @@
       <c r="A18">
         <v>55</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="s">
@@ -2005,13 +2001,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>28</v>
@@ -2021,7 +2014,7 @@
       <c r="A19">
         <v>56</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C19" t="s">
@@ -2037,7 +2030,7 @@
         <v>47</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
         <v>28</v>
@@ -2047,7 +2040,7 @@
       <c r="A20">
         <v>57</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C20" t="s">
@@ -2060,21 +2053,21 @@
         <v>9</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
         <v>28</v>
       </c>
-      <c r="J20" t="s">
-        <v>49</v>
+      <c r="J20" s="6" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>59</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>50</v>
+      <c r="B21" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -2083,7 +2076,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -2092,21 +2085,21 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="I21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>62</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>50</v>
+      <c r="B22" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -2115,7 +2108,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -2124,21 +2117,21 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>70</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>54</v>
+      <c r="B23" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -2147,7 +2140,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -2163,8 +2156,8 @@
       <c r="A24">
         <v>73</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>55</v>
+      <c r="B24" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -2176,27 +2169,27 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>56</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
         <v>57</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>76</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>60</v>
+      <c r="B25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -2218,8 +2211,8 @@
       <c r="A26">
         <v>79</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>61</v>
+      <c r="B26" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -2231,7 +2224,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2243,15 +2236,15 @@
         <v>28</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>91</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>64</v>
+      <c r="B27" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -2273,8 +2266,8 @@
       <c r="A28">
         <v>98</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>65</v>
+      <c r="B28" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -2283,30 +2276,30 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
         <v>66</v>
       </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
         <v>67</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>94</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>70</v>
+      <c r="B29" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -2315,24 +2308,24 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
         <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>72</v>
+      <c r="B30" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
@@ -2341,7 +2334,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F30" t="s">
         <v>35</v>
@@ -2353,15 +2346,15 @@
         <v>28</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>102</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>74</v>
+      <c r="B31" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -2370,30 +2363,30 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
         <v>75</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>77</v>
-      </c>
       <c r="I31" t="s">
         <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>104</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>78</v>
+      <c r="B32" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -2402,7 +2395,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -2418,8 +2411,8 @@
       <c r="A33">
         <v>105</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>79</v>
+      <c r="B33" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -2428,21 +2421,21 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I33" t="s">
         <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>121</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>81</v>
+      <c r="B34" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
@@ -2454,7 +2447,7 @@
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2467,8 +2460,8 @@
       <c r="A35">
         <v>124</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>83</v>
+      <c r="B35" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -2477,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I35" t="s">
         <v>28</v>
@@ -2487,8 +2480,8 @@
       <c r="A36">
         <v>125</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>84</v>
+      <c r="B36" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
@@ -2497,7 +2490,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2511,7 +2504,7 @@
         <v>128</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
@@ -2526,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s">
         <v>28</v>
@@ -2536,114 +2529,114 @@
       <c r="A38">
         <v>133</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
         <v>88</v>
       </c>
-      <c r="C38" t="s">
+      <c r="F38" t="s">
         <v>89</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
         <v>90</v>
       </c>
-      <c r="F38" t="s">
+      <c r="I38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>92</v>
-      </c>
-      <c r="I38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>139</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
         <v>94</v>
       </c>
-      <c r="C39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="F39" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>141</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
         <v>99</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>100</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" t="s">
         <v>101</v>
-      </c>
-      <c r="E40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>143</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" t="s">
         <v>104</v>
       </c>
-      <c r="C41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" t="s">
-        <v>106</v>
-      </c>
       <c r="G41">
         <v>1</v>
       </c>
@@ -2651,7 +2644,7 @@
         <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2659,74 +2652,74 @@
         <v>152</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" t="s">
         <v>108</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>109</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>110</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
         <v>111</v>
       </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" t="s">
         <v>112</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>113</v>
-      </c>
-      <c r="I42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2114</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>115</v>
+      <c r="B43" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2236</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>118</v>
+      <c r="B44" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2736,8 +2729,8 @@
       <c r="A45">
         <v>1023</v>
       </c>
-      <c r="B45" s="27" t="s">
-        <v>119</v>
+      <c r="B45" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -2752,15 +2745,15 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>831</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>121</v>
+      <c r="B46" s="25" t="s">
+        <v>119</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -2775,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2783,7 +2776,7 @@
         <v>153</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -2801,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I47" t="s">
         <v>28</v>
@@ -2811,8 +2804,8 @@
       <c r="A48">
         <v>190</v>
       </c>
-      <c r="B48" s="28" t="s">
-        <v>125</v>
+      <c r="B48" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="C48" t="s">
         <v>19</v>
@@ -2821,7 +2814,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F48" t="s">
         <v>36</v>
@@ -2830,21 +2823,21 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I48" t="s">
         <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>191</v>
       </c>
-      <c r="B49" s="28" t="s">
-        <v>129</v>
+      <c r="B49" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
@@ -2853,10 +2846,10 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2869,8 +2862,8 @@
       <c r="A50">
         <v>198</v>
       </c>
-      <c r="B50" s="29" t="s">
-        <v>131</v>
+      <c r="B50" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -2888,21 +2881,21 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I50" t="s">
         <v>28</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>200</v>
       </c>
-      <c r="B51" s="30" t="s">
-        <v>133</v>
+      <c r="B51" s="28" t="s">
+        <v>131</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -2914,27 +2907,27 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" t="s">
+        <v>133</v>
+      </c>
+      <c r="I51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" t="s">
         <v>135</v>
-      </c>
-      <c r="I51" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>206</v>
       </c>
-      <c r="B52" s="30" t="s">
-        <v>138</v>
+      <c r="B52" s="28" t="s">
+        <v>136</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
@@ -2946,7 +2939,7 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2955,7 +2948,7 @@
         <v>28</v>
       </c>
       <c r="J52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2963,7 +2956,7 @@
         <v>207</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -2972,27 +2965,27 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" t="s">
         <v>141</v>
-      </c>
-      <c r="F53" t="s">
-        <v>134</v>
-      </c>
-      <c r="H53" t="s">
-        <v>142</v>
-      </c>
-      <c r="I53" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>208</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>148</v>
+      <c r="B54" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -3001,24 +2994,24 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" t="s">
         <v>145</v>
-      </c>
-      <c r="H54" t="s">
-        <v>146</v>
-      </c>
-      <c r="I54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>211</v>
       </c>
-      <c r="B55" s="32" t="s">
-        <v>149</v>
+      <c r="B55" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -3027,77 +3020,77 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I55" t="s">
         <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>212</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" t="s">
         <v>151</v>
       </c>
-      <c r="C56" t="s">
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>144</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" t="s">
         <v>152</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
-        <v>145</v>
-      </c>
-      <c r="F56" t="s">
-        <v>153</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>146</v>
-      </c>
-      <c r="I56" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>213</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" t="s">
         <v>156</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>157</v>
       </c>
-      <c r="D57" t="s">
-        <v>158</v>
-      </c>
-      <c r="E57" t="s">
-        <v>159</v>
-      </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I57" t="s">
         <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3105,19 +3098,19 @@
         <v>217</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" t="s">
         <v>160</v>
-      </c>
-      <c r="D58" t="s">
-        <v>161</v>
-      </c>
-      <c r="E58" t="s">
-        <v>159</v>
-      </c>
-      <c r="F58" t="s">
-        <v>162</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3130,58 +3123,58 @@
       <c r="A59">
         <v>226</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" t="s">
         <v>164</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>165</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>166</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
         <v>167</v>
       </c>
-      <c r="F59" t="s">
+      <c r="I59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" t="s">
         <v>168</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>169</v>
-      </c>
-      <c r="I59" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>230</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" t="s">
         <v>171</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>172</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
         <v>173</v>
-      </c>
-      <c r="E60" t="s">
-        <v>174</v>
-      </c>
-      <c r="F60" t="s">
-        <v>168</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>175</v>
       </c>
       <c r="I60" t="s">
         <v>28</v>
@@ -3191,61 +3184,61 @@
       <c r="A61">
         <v>235</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" t="s">
         <v>176</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" t="s">
+        <v>178</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" t="s">
         <v>177</v>
-      </c>
-      <c r="D61" t="s">
-        <v>178</v>
-      </c>
-      <c r="E61" t="s">
-        <v>145</v>
-      </c>
-      <c r="F61" t="s">
-        <v>180</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>28</v>
-      </c>
-      <c r="J61" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>238</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" t="s">
         <v>181</v>
       </c>
-      <c r="C62" t="s">
+      <c r="F62" t="s">
         <v>182</v>
       </c>
-      <c r="D62" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
         <v>183</v>
       </c>
-      <c r="F62" t="s">
+      <c r="I62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>185</v>
-      </c>
-      <c r="I62" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3253,20 +3246,20 @@
         <v>242</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" t="s">
         <v>188</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>189</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>190</v>
       </c>
-      <c r="E63" t="s">
-        <v>191</v>
-      </c>
-      <c r="F63" t="s">
-        <v>192</v>
-      </c>
       <c r="G63">
         <v>1</v>
       </c>
@@ -3274,15 +3267,15 @@
         <v>28</v>
       </c>
       <c r="J63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>252</v>
       </c>
-      <c r="B64" s="38" t="s">
-        <v>193</v>
+      <c r="B64" s="36" t="s">
+        <v>191</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
@@ -3297,21 +3290,21 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I64" t="s">
         <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>253</v>
       </c>
-      <c r="B65" s="38" t="s">
-        <v>196</v>
+      <c r="B65" s="36" t="s">
+        <v>194</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -3323,7 +3316,7 @@
         <v>9</v>
       </c>
       <c r="H65" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I65" t="s">
         <v>28</v>
@@ -3333,8 +3326,8 @@
       <c r="A66">
         <v>261</v>
       </c>
-      <c r="B66" s="38" t="s">
-        <v>197</v>
+      <c r="B66" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -3343,10 +3336,10 @@
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H66" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I66" t="s">
         <v>28</v>
@@ -3357,7 +3350,7 @@
         <v>268</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
@@ -3372,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I67" t="s">
         <v>28</v>
@@ -3382,34 +3375,34 @@
       <c r="A68">
         <v>269</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" t="s">
         <v>199</v>
       </c>
-      <c r="C68" t="s">
+      <c r="I68" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" t="s">
         <v>200</v>
-      </c>
-      <c r="D68" t="s">
-        <v>201</v>
-      </c>
-      <c r="I68" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>271</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" t="s">
         <v>204</v>
-      </c>
-      <c r="C69" t="s">
-        <v>205</v>
-      </c>
-      <c r="D69" t="s">
-        <v>206</v>
       </c>
       <c r="I69" t="s">
         <v>28</v>
@@ -3419,46 +3412,46 @@
       <c r="A70">
         <v>295</v>
       </c>
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" t="s">
         <v>207</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
         <v>208</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
+        <v>210</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" t="s">
         <v>209</v>
-      </c>
-      <c r="E70" t="s">
-        <v>210</v>
-      </c>
-      <c r="F70" t="s">
-        <v>212</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>297</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" t="s">
+        <v>212</v>
+      </c>
+      <c r="E71" t="s">
         <v>213</v>
-      </c>
-      <c r="C71" t="s">
-        <v>200</v>
-      </c>
-      <c r="D71" t="s">
-        <v>214</v>
-      </c>
-      <c r="E71" t="s">
-        <v>215</v>
       </c>
       <c r="I71" t="s">
         <v>28</v>
@@ -3468,101 +3461,101 @@
       <c r="A72">
         <v>300</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" t="s">
         <v>216</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E72" t="s">
         <v>217</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
         <v>218</v>
       </c>
-      <c r="E72" t="s">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>220</v>
+      </c>
+      <c r="I72" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" t="s">
         <v>219</v>
-      </c>
-      <c r="F72" t="s">
-        <v>220</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>222</v>
-      </c>
-      <c r="I72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J72" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>322</v>
       </c>
-      <c r="B73" s="39" t="s">
-        <v>227</v>
+      <c r="B73" s="37" t="s">
+        <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E73" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I73" t="s">
         <v>28</v>
       </c>
       <c r="J73" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>323</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F74" t="s">
+        <v>227</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" t="s">
         <v>228</v>
-      </c>
-      <c r="C74" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" t="s">
-        <v>101</v>
-      </c>
-      <c r="E74" t="s">
-        <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>229</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>338</v>
       </c>
-      <c r="B75" s="44" t="s">
-        <v>231</v>
+      <c r="B75" s="42" t="s">
+        <v>229</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
@@ -3571,7 +3564,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F75" t="s">
         <v>25</v>
@@ -3580,21 +3573,21 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I75" t="s">
         <v>28</v>
       </c>
       <c r="J75" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>347</v>
       </c>
-      <c r="B76" s="45" t="s">
-        <v>234</v>
+      <c r="B76" s="43" t="s">
+        <v>232</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -3606,27 +3599,27 @@
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I76" t="s">
         <v>28</v>
       </c>
       <c r="J76" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>371</v>
       </c>
-      <c r="B77" s="45" t="s">
-        <v>238</v>
+      <c r="B77" s="43" t="s">
+        <v>236</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -3635,30 +3628,30 @@
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F77" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I77" t="s">
         <v>28</v>
       </c>
       <c r="J77" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>417</v>
       </c>
-      <c r="B78" s="46" t="s">
-        <v>240</v>
+      <c r="B78" s="44" t="s">
+        <v>238</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -3667,30 +3660,30 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I78" t="s">
         <v>28</v>
       </c>
       <c r="J78" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>424</v>
       </c>
-      <c r="B79" s="47" t="s">
-        <v>242</v>
+      <c r="B79" s="45" t="s">
+        <v>240</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -3702,27 +3695,27 @@
         <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I79" t="s">
         <v>28</v>
       </c>
       <c r="J79" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>647</v>
       </c>
-      <c r="B80" s="48" t="s">
-        <v>245</v>
+      <c r="B80" s="46" t="s">
+        <v>243</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -3740,17 +3733,40 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I80" t="s">
         <v>28</v>
       </c>
       <c r="J80" t="s">
-        <v>246</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>59</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>251</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
     <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>
@@ -3771,8 +3787,9 @@
     <hyperlink ref="B69" r:id="rId17" display="https://www.cnblogs.com/grandyang/p/5265628.html"/>
     <hyperlink ref="B73" r:id="rId18" display="https://www.cnblogs.com/grandyang/p/5138186.html"/>
     <hyperlink ref="J16" r:id="rId19"/>
+    <hyperlink ref="J20" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="252">
   <si>
     <t>Question Number</t>
   </si>
@@ -222,30 +222,18 @@
     <t>Tree</t>
   </si>
   <si>
-    <t>Recursion…</t>
-  </si>
-  <si>
     <t>understand other solution</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/validate-binary-search-tree/discuss/32141/C%2B%2B-simple-recursive-solution</t>
   </si>
   <si>
-    <t>Binary Tree Inorder Traversal</t>
-  </si>
-  <si>
     <t>Recursion, Iteration, Morris</t>
   </si>
   <si>
-    <t>Same Tree</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/same-tree/discuss/919297/c%2B%2B-~-100-faster-or-100-memory-efficient-or-easy-code</t>
   </si>
   <si>
-    <t>Binary Tree Level Order Traversal</t>
-  </si>
-  <si>
     <t>Iteration</t>
   </si>
   <si>
@@ -268,7 +256,7 @@
   </si>
   <si>
     <t>OnePass, Brute,DP</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree Maximum Path Sum</t>
@@ -278,71 +266,71 @@
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Longest Consecutive Sequence</t>
   </si>
   <si>
     <t>Study how is solution O(n)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Clone Graph</t>
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Graph</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HashMap,DFS,BFS</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>need to understand</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/clone-graph/discuss/1793212/C%2B%2Bor-Detailed-Explanation-w-DFS-and-BFS-or-Commented-code-with-extra-Test-Case</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Word Break</t>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HashMap,DP</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/word-break/discuss/43814/C%2B%2B-Dynamic-Programming-simple-and-fast-solution-(4ms)-with-optimization</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>need to understand</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Linked List Cycle</t>
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LinkedList</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/linked-list-cycle/discuss/1829489/C%2B%2B-oror-Easy-To-Understand-oror-2-Pointer-oror-Fast-and-Slow</t>
@@ -352,7 +340,7 @@
   </si>
   <si>
     <t>TwoPoint(Floyd’s Cycle-Finding Algorithm)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>TwoPoint</t>
@@ -365,23 +353,23 @@
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DP</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>need to understand</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-product-subarray/discuss/183483/JavaC%2B%2BPython-it-can-be-more-simple</t>
@@ -475,22 +463,22 @@
   </si>
   <si>
     <t>Course Schedule</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Tree</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Need to understand</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/implement-trie-prefix-tree/discuss/58945/Share-my-C%2B%2B-solutioneasy-to-understand</t>
   </si>
   <si>
     <t>Implement Trie (Prefix Tree)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Design Add and Search Words Data Structure</t>
@@ -503,11 +491,11 @@
   </si>
   <si>
     <t>Hard</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Backtracking, DFS</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/word-search-ii/discuss/878708/C%2B%2BPython-Backtracking-with-Trie-Clean-and-Concise</t>
@@ -520,54 +508,54 @@
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Hashmap</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Contains Duplicate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Invert Binary Tree</t>
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Tree</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Queue</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Can to understad BFS,DFS</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/invert-binary-tree/discuss/62891/C%2B%2B-no-recursion-clean-BFS-solution</t>
@@ -577,61 +565,61 @@
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Tree</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Need to understant others answer</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Lowest Common Ancestor of a Binary Search Tree</t>
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/discuss/64980/C%2B%2B-Recursive-and-Iterative</t>
   </si>
   <si>
     <t>Iterative, Recursion</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Product of Array Except Self</t>
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Prefix and Suffix</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Need to understand Prefix </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/product-of-array-except-self/discuss/65627/O(n)-time-and-O(1)-space-C%2B%2B-solution-with-explanation
 https://leetcode.com/problems/product-of-array-except-self/discuss/1610450/Attention-No-One-Going-to-Explain-like-this</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-anagram/discuss/66519/2-C%2B%2B-Solutions-with-Explanations</t>
@@ -641,19 +629,19 @@
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Hashmap</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Meeting Rooms</t>
@@ -672,110 +660,110 @@
   </si>
   <si>
     <t>Missing Number</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Alien Dictionary 另类字典</t>
   </si>
   <si>
     <t>Hard</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://www.cnblogs.com/grandyang/p/5250200.html</t>
   </si>
   <si>
     <t>Understand bit manipulation</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Encode and Decode Strings 加码解码字符串</t>
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Find Median from Data Stream</t>
   </si>
   <si>
     <t>Hard</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Design</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/find-median-from-data-stream/discuss/1330646/C%2B%2BJavaPython-MinHeap-MaxHeap-Solution-Picture-explain-Clean-and-Concise</t>
   </si>
   <si>
     <t>Priority_queue</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Serialize and Deserialize Binary Tree</t>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Tree</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Longest Increasing Subsequence</t>
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>C++</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DP, Binary Tree</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-increasing-subsequence/discuss/1326308/C%2B%2BPython-DP-Binary-Search-BIT-Solutions-Picture-explain-O(NlogN)</t>
   </si>
   <si>
     <t>Need to understand other</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://www.cnblogs.com/grandyang/p/5138186.html</t>
   </si>
   <si>
     <t>Need to understand</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DP</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Coin Change 硬币找零</t>
@@ -839,38 +827,54 @@
   </si>
   <si>
     <t>Backtracking</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://ithelp.ithome.com.tw/users/20119871/ironman/2210?page=1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>must learn</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Greedy, DP</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/insert-interval/discuss/844523/C%2B%2B-Super-Clean-Clear-Short-and-Simple-Solution-O(n)-time-O(1)-space</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Spiral Matrix II</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Matrix</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recursion, InOrder</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same Tree</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,18 +910,6 @@
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1146,7 +1138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1167,8 +1159,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1185,23 +1177,21 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1519,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1865,7 +1855,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1949,13 +1939,13 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I16" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2001,7 +1991,7 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2059,7 +2049,7 @@
         <v>28</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2266,7 +2256,7 @@
       <c r="A28">
         <v>98</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
@@ -2279,27 +2269,24 @@
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
         <v>66</v>
-      </c>
-      <c r="I28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>94</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>68</v>
+      <c r="B29" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -2311,21 +2298,18 @@
         <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>70</v>
+      <c r="B30" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
@@ -2340,21 +2324,21 @@
         <v>35</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>102</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>72</v>
+      <c r="B31" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -2366,27 +2350,27 @@
         <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I31" t="s">
         <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>104</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>76</v>
+      <c r="B32" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -2411,8 +2395,8 @@
       <c r="A33">
         <v>105</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>77</v>
+      <c r="B33" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -2427,15 +2411,15 @@
         <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>121</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>79</v>
+      <c r="B34" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
@@ -2447,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2460,8 +2444,8 @@
       <c r="A35">
         <v>124</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>81</v>
+      <c r="B35" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -2480,8 +2464,8 @@
       <c r="A36">
         <v>125</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>82</v>
+      <c r="B36" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
@@ -2490,7 +2474,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2504,7 +2488,7 @@
         <v>128</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
@@ -2519,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s">
         <v>28</v>
@@ -2529,114 +2513,114 @@
       <c r="A38">
         <v>133</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
         <v>86</v>
       </c>
-      <c r="C38" t="s">
+      <c r="I38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>139</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
         <v>92</v>
       </c>
-      <c r="C39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>96</v>
-      </c>
       <c r="I39" t="s">
         <v>28</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>141</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" t="s">
         <v>97</v>
-      </c>
-      <c r="C40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>143</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>102</v>
+      <c r="B41" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" t="s">
         <v>100</v>
       </c>
-      <c r="F41" t="s">
-        <v>104</v>
-      </c>
       <c r="G41">
         <v>1</v>
       </c>
@@ -2644,7 +2628,7 @@
         <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2652,71 +2636,71 @@
         <v>152</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" t="s">
         <v>106</v>
       </c>
-      <c r="C42" t="s">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
         <v>107</v>
       </c>
-      <c r="D42" t="s">
+      <c r="I42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" t="s">
         <v>108</v>
-      </c>
-      <c r="E42" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>111</v>
-      </c>
-      <c r="I42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2114</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>113</v>
+      <c r="B43" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2236</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>116</v>
+      <c r="B44" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E44" t="s">
         <v>64</v>
@@ -2729,8 +2713,8 @@
       <c r="A45">
         <v>1023</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>117</v>
+      <c r="B45" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -2745,15 +2729,15 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>831</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>119</v>
+      <c r="B46" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -2768,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2776,7 +2760,7 @@
         <v>153</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -2794,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I47" t="s">
         <v>28</v>
@@ -2804,8 +2788,8 @@
       <c r="A48">
         <v>190</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>123</v>
+      <c r="B48" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="C48" t="s">
         <v>19</v>
@@ -2814,7 +2798,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
         <v>36</v>
@@ -2823,21 +2807,21 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I48" t="s">
         <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>191</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>127</v>
+      <c r="B49" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
@@ -2846,10 +2830,10 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" t="s">
         <v>124</v>
-      </c>
-      <c r="F49" t="s">
-        <v>128</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2862,8 +2846,8 @@
       <c r="A50">
         <v>198</v>
       </c>
-      <c r="B50" s="27" t="s">
-        <v>129</v>
+      <c r="B50" s="25" t="s">
+        <v>125</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -2881,21 +2865,21 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I50" t="s">
         <v>28</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>200</v>
       </c>
-      <c r="B51" s="28" t="s">
-        <v>131</v>
+      <c r="B51" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -2907,27 +2891,27 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I51" t="s">
         <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>206</v>
       </c>
-      <c r="B52" s="28" t="s">
-        <v>136</v>
+      <c r="B52" s="26" t="s">
+        <v>132</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
@@ -2939,7 +2923,7 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2948,7 +2932,7 @@
         <v>28</v>
       </c>
       <c r="J52" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2956,7 +2940,7 @@
         <v>207</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -2965,27 +2949,27 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F53" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H53" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I53" t="s">
         <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>208</v>
       </c>
-      <c r="B54" s="29" t="s">
-        <v>146</v>
+      <c r="B54" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -2994,24 +2978,24 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I54" t="s">
         <v>28</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>211</v>
       </c>
-      <c r="B55" s="30" t="s">
-        <v>147</v>
+      <c r="B55" s="28" t="s">
+        <v>143</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -3020,77 +3004,77 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H55" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" t="s">
         <v>144</v>
-      </c>
-      <c r="I55" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>212</v>
       </c>
-      <c r="B56" s="30" t="s">
-        <v>149</v>
+      <c r="B56" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F56" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I56" t="s">
         <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>213</v>
       </c>
-      <c r="B57" s="31" t="s">
-        <v>154</v>
+      <c r="B57" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="C57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D57" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I57" t="s">
         <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3098,19 +3082,19 @@
         <v>217</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3123,58 +3107,58 @@
       <c r="A59">
         <v>226</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" t="s">
+        <v>161</v>
+      </c>
+      <c r="F59" t="s">
         <v>162</v>
       </c>
-      <c r="C59" t="s">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
         <v>163</v>
       </c>
-      <c r="D59" t="s">
+      <c r="I59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" t="s">
         <v>164</v>
-      </c>
-      <c r="E59" t="s">
-        <v>165</v>
-      </c>
-      <c r="F59" t="s">
-        <v>166</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>167</v>
-      </c>
-      <c r="I59" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>230</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" t="s">
+        <v>162</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
         <v>169</v>
-      </c>
-      <c r="C60" t="s">
-        <v>170</v>
-      </c>
-      <c r="D60" t="s">
-        <v>171</v>
-      </c>
-      <c r="E60" t="s">
-        <v>172</v>
-      </c>
-      <c r="F60" t="s">
-        <v>166</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>173</v>
       </c>
       <c r="I60" t="s">
         <v>28</v>
@@ -3184,21 +3168,21 @@
       <c r="A61">
         <v>235</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" t="s">
         <v>174</v>
       </c>
-      <c r="C61" t="s">
-        <v>175</v>
-      </c>
-      <c r="D61" t="s">
-        <v>176</v>
-      </c>
-      <c r="E61" t="s">
-        <v>143</v>
-      </c>
-      <c r="F61" t="s">
-        <v>178</v>
-      </c>
       <c r="G61">
         <v>1</v>
       </c>
@@ -3206,39 +3190,39 @@
         <v>28</v>
       </c>
       <c r="J61" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>238</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
         <v>179</v>
       </c>
-      <c r="C62" t="s">
+      <c r="I62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="D62" t="s">
-        <v>99</v>
-      </c>
-      <c r="E62" t="s">
-        <v>181</v>
-      </c>
-      <c r="F62" t="s">
-        <v>182</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>183</v>
-      </c>
-      <c r="I62" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3246,20 +3230,20 @@
         <v>242</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" t="s">
         <v>186</v>
       </c>
-      <c r="C63" t="s">
-        <v>187</v>
-      </c>
-      <c r="D63" t="s">
-        <v>188</v>
-      </c>
-      <c r="E63" t="s">
-        <v>189</v>
-      </c>
-      <c r="F63" t="s">
-        <v>190</v>
-      </c>
       <c r="G63">
         <v>1</v>
       </c>
@@ -3267,15 +3251,15 @@
         <v>28</v>
       </c>
       <c r="J63" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>252</v>
       </c>
-      <c r="B64" s="36" t="s">
-        <v>191</v>
+      <c r="B64" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
@@ -3290,21 +3274,21 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I64" t="s">
         <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>253</v>
       </c>
-      <c r="B65" s="36" t="s">
-        <v>194</v>
+      <c r="B65" s="34" t="s">
+        <v>190</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -3316,7 +3300,7 @@
         <v>9</v>
       </c>
       <c r="H65" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I65" t="s">
         <v>28</v>
@@ -3326,8 +3310,8 @@
       <c r="A66">
         <v>261</v>
       </c>
-      <c r="B66" s="36" t="s">
-        <v>195</v>
+      <c r="B66" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -3339,7 +3323,7 @@
         <v>64</v>
       </c>
       <c r="H66" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I66" t="s">
         <v>28</v>
@@ -3350,7 +3334,7 @@
         <v>268</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
@@ -3365,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I67" t="s">
         <v>28</v>
@@ -3375,34 +3359,34 @@
       <c r="A68">
         <v>269</v>
       </c>
-      <c r="B68" s="37" t="s">
-        <v>197</v>
+      <c r="B68" s="35" t="s">
+        <v>193</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I68" t="s">
         <v>28</v>
       </c>
       <c r="J68" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>271</v>
       </c>
-      <c r="B69" s="37" t="s">
-        <v>202</v>
+      <c r="B69" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D69" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I69" t="s">
         <v>28</v>
@@ -3412,46 +3396,46 @@
       <c r="A70">
         <v>295</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" t="s">
+        <v>206</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" t="s">
         <v>205</v>
-      </c>
-      <c r="C70" t="s">
-        <v>206</v>
-      </c>
-      <c r="D70" t="s">
-        <v>207</v>
-      </c>
-      <c r="E70" t="s">
-        <v>208</v>
-      </c>
-      <c r="F70" t="s">
-        <v>210</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>297</v>
       </c>
-      <c r="B71" s="39" t="s">
-        <v>211</v>
+      <c r="B71" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D71" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E71" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I71" t="s">
         <v>28</v>
@@ -3461,84 +3445,84 @@
       <c r="A72">
         <v>300</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" t="s">
+        <v>212</v>
+      </c>
+      <c r="E72" t="s">
+        <v>213</v>
+      </c>
+      <c r="F72" t="s">
         <v>214</v>
       </c>
-      <c r="C72" t="s">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>216</v>
+      </c>
+      <c r="I72" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" t="s">
         <v>215</v>
-      </c>
-      <c r="D72" t="s">
-        <v>216</v>
-      </c>
-      <c r="E72" t="s">
-        <v>217</v>
-      </c>
-      <c r="F72" t="s">
-        <v>218</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>220</v>
-      </c>
-      <c r="I72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J72" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>322</v>
       </c>
-      <c r="B73" s="37" t="s">
-        <v>225</v>
+      <c r="B73" s="35" t="s">
+        <v>221</v>
       </c>
       <c r="C73" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E73" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F73" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I73" t="s">
         <v>28</v>
       </c>
       <c r="J73" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>323</v>
       </c>
-      <c r="B74" s="41" t="s">
-        <v>226</v>
+      <c r="B74" s="39" t="s">
+        <v>222</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D74" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F74" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -3547,15 +3531,15 @@
         <v>28</v>
       </c>
       <c r="J74" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>338</v>
       </c>
-      <c r="B75" s="42" t="s">
-        <v>229</v>
+      <c r="B75" s="40" t="s">
+        <v>225</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
@@ -3564,7 +3548,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F75" t="s">
         <v>25</v>
@@ -3573,21 +3557,21 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I75" t="s">
         <v>28</v>
       </c>
       <c r="J75" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>347</v>
       </c>
-      <c r="B76" s="43" t="s">
-        <v>232</v>
+      <c r="B76" s="41" t="s">
+        <v>228</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -3599,27 +3583,27 @@
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I76" t="s">
         <v>28</v>
       </c>
       <c r="J76" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>371</v>
       </c>
-      <c r="B77" s="43" t="s">
-        <v>236</v>
+      <c r="B77" s="41" t="s">
+        <v>232</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -3628,30 +3612,30 @@
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F77" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I77" t="s">
         <v>28</v>
       </c>
       <c r="J77" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>417</v>
       </c>
-      <c r="B78" s="44" t="s">
-        <v>238</v>
+      <c r="B78" s="42" t="s">
+        <v>234</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -3660,30 +3644,30 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F78" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I78" t="s">
         <v>28</v>
       </c>
       <c r="J78" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>424</v>
       </c>
-      <c r="B79" s="45" t="s">
-        <v>240</v>
+      <c r="B79" s="43" t="s">
+        <v>236</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -3695,27 +3679,27 @@
         <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I79" t="s">
         <v>28</v>
       </c>
       <c r="J79" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>647</v>
       </c>
-      <c r="B80" s="46" t="s">
-        <v>243</v>
+      <c r="B80" s="44" t="s">
+        <v>239</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -3733,13 +3717,13 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I80" t="s">
         <v>28</v>
       </c>
       <c r="J80" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3747,7 +3731,7 @@
         <v>59</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -3759,14 +3743,14 @@
         <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" display="https://leetcode.com/problems/merge-k-sorted-lists"/>
     <hyperlink ref="B7" r:id="rId2" display="https://leetcode.com/problems/3sum"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="254">
   <si>
     <t>Question Number</t>
   </si>
@@ -867,6 +867,13 @@
   </si>
   <si>
     <t>Binary Tree Level Order Traversal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>DP</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -874,7 +881,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,36 +954,6 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1138,22 +1115,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1174,24 +1147,12 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1507,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1556,7 +1517,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
@@ -1582,7 +1543,7 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
@@ -1631,7 +1592,7 @@
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
@@ -1686,7 +1647,7 @@
       <c r="A7">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
@@ -1790,7 +1751,7 @@
       <c r="A11">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
@@ -1816,7 +1777,7 @@
       <c r="A12">
         <v>33</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="s">
@@ -1842,7 +1803,7 @@
       <c r="A13">
         <v>39</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
@@ -1920,7 +1881,7 @@
       <c r="A16">
         <v>53</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C16" t="s">
@@ -1944,7 +1905,7 @@
       <c r="I16" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>242</v>
       </c>
     </row>
@@ -1952,7 +1913,7 @@
       <c r="A17">
         <v>54</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C17" t="s">
@@ -1978,7 +1939,7 @@
       <c r="A18">
         <v>55</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="s">
@@ -2048,7 +2009,7 @@
       <c r="I20" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2056,7 +2017,7 @@
       <c r="A21">
         <v>59</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="s">
@@ -2080,7 +2041,7 @@
       <c r="I21" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2088,7 +2049,7 @@
       <c r="A22">
         <v>62</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C22" t="s">
@@ -2112,7 +2073,7 @@
       <c r="I22" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2120,7 +2081,7 @@
       <c r="A23">
         <v>70</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C23" t="s">
@@ -2146,7 +2107,7 @@
       <c r="A24">
         <v>73</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C24" t="s">
@@ -2178,7 +2139,7 @@
       <c r="A25">
         <v>76</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
@@ -2201,7 +2162,7 @@
       <c r="A26">
         <v>79</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C26" t="s">
@@ -2233,7 +2194,7 @@
       <c r="A27">
         <v>91</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C27" t="s">
@@ -2329,7 +2290,7 @@
       <c r="I30" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2369,7 +2330,7 @@
       <c r="A32">
         <v>104</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C32" t="s">
@@ -2395,7 +2356,7 @@
       <c r="A33">
         <v>105</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C33" t="s">
@@ -2418,7 +2379,7 @@
       <c r="A34">
         <v>121</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C34" t="s">
@@ -2444,7 +2405,7 @@
       <c r="A35">
         <v>124</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C35" t="s">
@@ -2460,11 +2421,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>125</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="31" t="s">
         <v>78</v>
       </c>
       <c r="C36" t="s">
@@ -2487,7 +2448,7 @@
       <c r="A37">
         <v>128</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="31" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
@@ -2513,7 +2474,7 @@
       <c r="A38">
         <v>133</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="31" t="s">
         <v>82</v>
       </c>
       <c r="C38" t="s">
@@ -2537,7 +2498,7 @@
       <c r="I38" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="5" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2545,7 +2506,7 @@
       <c r="A39">
         <v>139</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C39" t="s">
@@ -2569,7 +2530,7 @@
       <c r="I39" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2577,7 +2538,7 @@
       <c r="A40">
         <v>141</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="16" t="s">
         <v>93</v>
       </c>
       <c r="C40" t="s">
@@ -2606,7 +2567,7 @@
       <c r="A41">
         <v>143</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C41" t="s">
@@ -2635,7 +2596,7 @@
       <c r="A42">
         <v>152</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C42" t="s">
@@ -2667,7 +2628,7 @@
       <c r="A43">
         <v>2114</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C43" t="s">
@@ -2693,7 +2654,7 @@
       <c r="A44">
         <v>2236</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="19" t="s">
         <v>112</v>
       </c>
       <c r="C44" t="s">
@@ -2713,7 +2674,7 @@
       <c r="A45">
         <v>1023</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C45" t="s">
@@ -2736,7 +2697,7 @@
       <c r="A46">
         <v>831</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="20" t="s">
         <v>115</v>
       </c>
       <c r="C46" t="s">
@@ -2759,7 +2720,7 @@
       <c r="A47">
         <v>153</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C47" t="s">
@@ -2788,7 +2749,7 @@
       <c r="A48">
         <v>190</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="21" t="s">
         <v>119</v>
       </c>
       <c r="C48" t="s">
@@ -2820,7 +2781,7 @@
       <c r="A49">
         <v>191</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="21" t="s">
         <v>123</v>
       </c>
       <c r="C49" t="s">
@@ -2846,7 +2807,7 @@
       <c r="A50">
         <v>198</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="22" t="s">
         <v>125</v>
       </c>
       <c r="C50" t="s">
@@ -2870,7 +2831,7 @@
       <c r="I50" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="5" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2878,7 +2839,7 @@
       <c r="A51">
         <v>200</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="23" t="s">
         <v>127</v>
       </c>
       <c r="C51" t="s">
@@ -2910,7 +2871,7 @@
       <c r="A52">
         <v>206</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="23" t="s">
         <v>132</v>
       </c>
       <c r="C52" t="s">
@@ -2939,7 +2900,7 @@
       <c r="A53">
         <v>207</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C53" t="s">
@@ -2968,7 +2929,7 @@
       <c r="A54">
         <v>208</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="24" t="s">
         <v>142</v>
       </c>
       <c r="C54" t="s">
@@ -2994,7 +2955,7 @@
       <c r="A55">
         <v>211</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="25" t="s">
         <v>143</v>
       </c>
       <c r="C55" t="s">
@@ -3020,7 +2981,7 @@
       <c r="A56">
         <v>212</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="25" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -3052,7 +3013,7 @@
       <c r="A57">
         <v>213</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="26" t="s">
         <v>150</v>
       </c>
       <c r="C57" t="s">
@@ -3081,7 +3042,7 @@
       <c r="A58">
         <v>217</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C58" t="s">
@@ -3107,7 +3068,7 @@
       <c r="A59">
         <v>226</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="27" t="s">
         <v>158</v>
       </c>
       <c r="C59" t="s">
@@ -3168,7 +3129,7 @@
       <c r="A61">
         <v>235</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="31" t="s">
         <v>170</v>
       </c>
       <c r="C61" t="s">
@@ -3197,7 +3158,7 @@
       <c r="A62">
         <v>238</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="31" t="s">
         <v>175</v>
       </c>
       <c r="C62" t="s">
@@ -3221,7 +3182,7 @@
       <c r="I62" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="5" t="s">
+      <c r="J62" s="4" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3229,7 +3190,7 @@
       <c r="A63">
         <v>242</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="31" t="s">
         <v>182</v>
       </c>
       <c r="C63" t="s">
@@ -3258,7 +3219,7 @@
       <c r="A64">
         <v>252</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="31" t="s">
         <v>187</v>
       </c>
       <c r="C64" t="s">
@@ -3287,7 +3248,7 @@
       <c r="A65">
         <v>253</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="31" t="s">
         <v>190</v>
       </c>
       <c r="C65" t="s">
@@ -3310,7 +3271,7 @@
       <c r="A66">
         <v>261</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="31" t="s">
         <v>191</v>
       </c>
       <c r="C66" t="s">
@@ -3333,7 +3294,7 @@
       <c r="A67">
         <v>268</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="31" t="s">
         <v>192</v>
       </c>
       <c r="C67" t="s">
@@ -3359,7 +3320,7 @@
       <c r="A68">
         <v>269</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="31" t="s">
         <v>193</v>
       </c>
       <c r="C68" t="s">
@@ -3379,7 +3340,7 @@
       <c r="A69">
         <v>271</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="31" t="s">
         <v>198</v>
       </c>
       <c r="C69" t="s">
@@ -3396,7 +3357,7 @@
       <c r="A70">
         <v>295</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="31" t="s">
         <v>201</v>
       </c>
       <c r="C70" t="s">
@@ -3425,7 +3386,7 @@
       <c r="A71">
         <v>297</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="31" t="s">
         <v>207</v>
       </c>
       <c r="C71" t="s">
@@ -3445,7 +3406,7 @@
       <c r="A72">
         <v>300</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="28" t="s">
         <v>210</v>
       </c>
       <c r="C72" t="s">
@@ -3477,7 +3438,7 @@
       <c r="A73">
         <v>322</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="31" t="s">
         <v>221</v>
       </c>
       <c r="C73" t="s">
@@ -3509,7 +3470,7 @@
       <c r="A74">
         <v>323</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="29" t="s">
         <v>222</v>
       </c>
       <c r="C74" t="s">
@@ -3538,7 +3499,7 @@
       <c r="A75">
         <v>338</v>
       </c>
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="30" t="s">
         <v>225</v>
       </c>
       <c r="C75" t="s">
@@ -3570,7 +3531,7 @@
       <c r="A76">
         <v>347</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="31" t="s">
         <v>228</v>
       </c>
       <c r="C76" t="s">
@@ -3602,7 +3563,7 @@
       <c r="A77">
         <v>371</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="31" t="s">
         <v>232</v>
       </c>
       <c r="C77" t="s">
@@ -3634,7 +3595,7 @@
       <c r="A78">
         <v>417</v>
       </c>
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="32" t="s">
         <v>234</v>
       </c>
       <c r="C78" t="s">
@@ -3666,7 +3627,7 @@
       <c r="A79">
         <v>424</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="33" t="s">
         <v>236</v>
       </c>
       <c r="C79" t="s">
@@ -3698,7 +3659,7 @@
       <c r="A80">
         <v>647</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B80" s="34" t="s">
         <v>239</v>
       </c>
       <c r="C80" t="s">
@@ -3747,6 +3708,26 @@
       </c>
       <c r="G81">
         <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>416</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="19426" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="256">
   <si>
     <t>Question Number</t>
   </si>
@@ -874,6 +874,14 @@
   </si>
   <si>
     <t>DP</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Largest Number At Least Twice of Others</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1468,23 +1476,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.796875" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.796875" customWidth="1"/>
-    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.75" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1539,7 +1547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1565,7 +1573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1588,7 +1596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1617,7 +1625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -1643,7 +1651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1669,7 +1677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1695,7 +1703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1747,7 +1755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1773,7 +1781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1799,7 +1807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>39</v>
       </c>
@@ -1825,7 +1833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1851,7 +1859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>49</v>
       </c>
@@ -1877,7 +1885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>53</v>
       </c>
@@ -1909,7 +1917,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>54</v>
       </c>
@@ -1935,7 +1943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>55</v>
       </c>
@@ -1961,7 +1969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>56</v>
       </c>
@@ -1987,7 +1995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>57</v>
       </c>
@@ -2013,7 +2021,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>59</v>
       </c>
@@ -2045,7 +2053,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>62</v>
       </c>
@@ -2077,7 +2085,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>70</v>
       </c>
@@ -2103,7 +2111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>73</v>
       </c>
@@ -2135,7 +2143,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>76</v>
       </c>
@@ -2158,7 +2166,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>79</v>
       </c>
@@ -2190,7 +2198,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>91</v>
       </c>
@@ -2213,7 +2221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>98</v>
       </c>
@@ -2242,7 +2250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2265,7 +2273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>100</v>
       </c>
@@ -2294,7 +2302,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>102</v>
       </c>
@@ -2326,7 +2334,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>104</v>
       </c>
@@ -2352,7 +2360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>105</v>
       </c>
@@ -2375,7 +2383,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>121</v>
       </c>
@@ -2401,7 +2409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>124</v>
       </c>
@@ -2421,7 +2429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>125</v>
       </c>
@@ -2444,7 +2452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>128</v>
       </c>
@@ -2470,7 +2478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>133</v>
       </c>
@@ -2502,7 +2510,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>139</v>
       </c>
@@ -2534,7 +2542,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>141</v>
       </c>
@@ -2563,7 +2571,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>143</v>
       </c>
@@ -2592,7 +2600,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>152</v>
       </c>
@@ -2624,7 +2632,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2114</v>
       </c>
@@ -2650,7 +2658,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2236</v>
       </c>
@@ -2670,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1023</v>
       </c>
@@ -2693,7 +2701,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>831</v>
       </c>
@@ -2716,7 +2724,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>153</v>
       </c>
@@ -2745,7 +2753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>190</v>
       </c>
@@ -2777,7 +2785,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>191</v>
       </c>
@@ -2803,7 +2811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>198</v>
       </c>
@@ -2835,7 +2843,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>200</v>
       </c>
@@ -2867,7 +2875,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>206</v>
       </c>
@@ -2896,7 +2904,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>207</v>
       </c>
@@ -2925,7 +2933,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>208</v>
       </c>
@@ -2951,7 +2959,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>211</v>
       </c>
@@ -2977,7 +2985,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>212</v>
       </c>
@@ -3009,7 +3017,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>213</v>
       </c>
@@ -3038,7 +3046,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>217</v>
       </c>
@@ -3064,7 +3072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>226</v>
       </c>
@@ -3096,7 +3104,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>230</v>
       </c>
@@ -3125,7 +3133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>235</v>
       </c>
@@ -3154,7 +3162,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>238</v>
       </c>
@@ -3186,7 +3194,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>242</v>
       </c>
@@ -3215,7 +3223,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>252</v>
       </c>
@@ -3244,7 +3252,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>253</v>
       </c>
@@ -3267,7 +3275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>261</v>
       </c>
@@ -3290,7 +3298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>268</v>
       </c>
@@ -3316,7 +3324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>269</v>
       </c>
@@ -3336,7 +3344,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>271</v>
       </c>
@@ -3353,7 +3361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>295</v>
       </c>
@@ -3382,7 +3390,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>297</v>
       </c>
@@ -3402,7 +3410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>300</v>
       </c>
@@ -3434,7 +3442,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>322</v>
       </c>
@@ -3466,7 +3474,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>323</v>
       </c>
@@ -3495,7 +3503,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>338</v>
       </c>
@@ -3527,7 +3535,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>347</v>
       </c>
@@ -3559,7 +3567,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>371</v>
       </c>
@@ -3591,7 +3599,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>417</v>
       </c>
@@ -3623,7 +3631,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>424</v>
       </c>
@@ -3655,7 +3663,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>647</v>
       </c>
@@ -3687,7 +3695,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>59</v>
       </c>
@@ -3710,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>416</v>
       </c>
@@ -3728,6 +3736,26 @@
       </c>
       <c r="F82" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>747</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C83" t="s">
+        <v>255</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
